--- a/EVENING.xlsx
+++ b/EVENING.xlsx
@@ -23,10 +23,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="647">
   <si>
-    <t xml:space="preserve">S/No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KCSE Index No</t>
+    <t xml:space="preserve">S.No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index Number/Year</t>
   </si>
   <si>
     <t xml:space="preserve">Student Name</t>
@@ -35,19 +35,19 @@
     <t xml:space="preserve">Gender</t>
   </si>
   <si>
-    <t xml:space="preserve">Tel No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alt Tel No.</t>
+    <t xml:space="preserve">Phone Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Number 2</t>
   </si>
   <si>
     <t xml:space="preserve">Email</t>
   </si>
   <si>
-    <t xml:space="preserve">Postal Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post Code</t>
+    <t xml:space="preserve">P.O. Box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postal Code</t>
   </si>
   <si>
     <t xml:space="preserve">Town</t>
@@ -2294,14 +2294,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="0E+00"/>
-    <numFmt numFmtId="167" formatCode="0.000E+00"/>
-    <numFmt numFmtId="168" formatCode="000000000"/>
+    <numFmt numFmtId="165" formatCode="0.00%"/>
+    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="167" formatCode="0E+00"/>
+    <numFmt numFmtId="168" formatCode="0.000E+00"/>
+    <numFmt numFmtId="169" formatCode="000000000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2337,6 +2338,14 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="13"/>
+      <color rgb="FF44546A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -2408,7 +2417,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2417,23 +2426,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
+        <fgColor rgb="FFBFBFBF"/>
         <bgColor rgb="FFBEBEBE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFBEBEBE"/>
-        <bgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFA1B8E1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -2443,8 +2467,15 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2475,225 +2506,236 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="3" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="1" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="3" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="1" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2701,219 +2743,219 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2922,7 +2964,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -2931,6 +2973,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Hyperlink 2" xfId="20"/>
     <cellStyle name="Normal 2" xfId="21"/>
+    <cellStyle name="Excel Built-in Heading 2" xfId="22"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2948,7 +2991,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFBEBEBE"/>
+      <rgbColor rgb="FFBFBFBF"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -2970,9 +3013,9 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFA1B8E1"/>
       <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFBEBEBE"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
@@ -2980,7 +3023,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF44546A"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -3002,11 +3045,11 @@
   </sheetPr>
   <dimension ref="A1:M143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.78"/>
@@ -3016,7 +3059,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="35.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.66"/>
@@ -3032,28 +3075,28 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -3064,5460 +3107,5460 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="10" t="n">
         <v>111294841</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="10" t="n">
         <v>711792558</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="6" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="10" t="s">
+      <c r="L2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="10" t="n">
         <v>720796039</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="10" t="n">
         <v>714142636</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="8" t="n">
+      <c r="H3" s="10" t="n">
         <v>214</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="6" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="10" t="s">
+      <c r="L3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="10" t="n">
         <v>798170566</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="10" t="n">
         <v>722381754</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="8" t="n">
+      <c r="H4" s="10" t="n">
         <v>43563</v>
       </c>
-      <c r="I4" s="8" t="n">
+      <c r="I4" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="10" t="s">
+      <c r="L4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="10" t="n">
         <v>792815316</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="10" t="n">
         <v>716059032</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="8" t="n">
+      <c r="H5" s="10" t="n">
         <v>78887</v>
       </c>
-      <c r="I5" s="8" t="n">
+      <c r="I5" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="10" t="s">
+      <c r="L5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="10" t="n">
         <v>723652864</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="10" t="n">
         <v>722711258</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="8" t="n">
+      <c r="H6" s="10" t="n">
         <v>26495</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="I6" s="10" t="n">
         <v>90300</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="10" t="s">
+      <c r="L6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="10" t="n">
         <v>703207236</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="10" t="n">
         <v>726015992</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="8" t="n">
+      <c r="H7" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="I7" s="8" t="n">
+      <c r="I7" s="10" t="n">
         <v>10107</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="10" t="s">
+      <c r="L7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="12" t="n">
+      <c r="E8" s="14" t="n">
         <v>793489917</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="12" t="n">
+      <c r="H8" s="14" t="n">
         <v>30200</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10" t="s">
+      <c r="I8" s="11"/>
+      <c r="J8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="10" t="s">
+      <c r="L8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="8" t="n">
+      <c r="E9" s="11"/>
+      <c r="F9" s="10" t="n">
         <v>742312770</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="8" t="n">
+      <c r="H9" s="10" t="n">
         <v>15547</v>
       </c>
-      <c r="I9" s="8" t="n">
+      <c r="I9" s="10" t="n">
         <v>509</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="10" t="s">
+      <c r="L9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="10" t="n">
         <v>794925484</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="10" t="n">
         <v>712305676</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="H10" s="10" t="n">
         <v>57</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10" t="s">
+      <c r="I10" s="11"/>
+      <c r="J10" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="10" t="s">
+      <c r="L10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="12" t="n">
+      <c r="E11" s="14" t="n">
         <v>725832931</v>
       </c>
-      <c r="F11" s="12" t="n">
+      <c r="F11" s="14" t="n">
         <v>725832931</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="14" t="n">
+      <c r="H11" s="16" t="n">
         <v>69363</v>
       </c>
-      <c r="I11" s="12" t="n">
+      <c r="I11" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="10" t="s">
+      <c r="L11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="12" t="n">
+      <c r="E12" s="14" t="n">
         <v>714476952</v>
       </c>
-      <c r="F12" s="12" t="n">
+      <c r="F12" s="14" t="n">
         <v>723044665</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="14" t="n">
+      <c r="H12" s="16" t="n">
         <v>1706</v>
       </c>
-      <c r="I12" s="12" t="n">
+      <c r="I12" s="14" t="n">
         <v>30100</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="10" t="s">
+      <c r="L12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="12" t="n">
+      <c r="E13" s="14" t="n">
         <v>741577626</v>
       </c>
-      <c r="F13" s="12" t="n">
+      <c r="F13" s="14" t="n">
         <v>720129022</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="16" t="n">
+      <c r="H13" s="18" t="n">
         <v>100</v>
       </c>
-      <c r="I13" s="12" t="n">
+      <c r="I13" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="10" t="s">
+      <c r="L13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="12" t="n">
+      <c r="E14" s="14" t="n">
         <v>706059927</v>
       </c>
-      <c r="F14" s="12" t="n">
+      <c r="F14" s="14" t="n">
         <v>114773030</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="16" t="n">
+      <c r="H14" s="18" t="n">
         <v>815</v>
       </c>
-      <c r="I14" s="12" t="n">
+      <c r="I14" s="14" t="n">
         <v>232</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="10" t="s">
+      <c r="L14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="10" t="n">
         <v>768155225</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="17" t="n">
+      <c r="H15" s="19" t="n">
         <v>40601</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10" t="s">
+      <c r="I15" s="11"/>
+      <c r="J15" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="10" t="s">
+      <c r="L15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="12" t="n">
+      <c r="E16" s="14" t="n">
         <v>721644672</v>
       </c>
-      <c r="F16" s="12" t="n">
+      <c r="F16" s="14" t="n">
         <v>701699007</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="12" t="n">
+      <c r="H16" s="14" t="n">
         <v>78</v>
       </c>
-      <c r="I16" s="12" t="n">
+      <c r="I16" s="14" t="n">
         <v>90302</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="10" t="s">
+      <c r="L16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="10" t="n">
         <v>725759624</v>
       </c>
-      <c r="F17" s="8" t="n">
+      <c r="F17" s="10" t="n">
         <v>71669830</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="20" t="n">
+      <c r="H17" s="22" t="n">
         <v>266</v>
       </c>
-      <c r="I17" s="8" t="n">
+      <c r="I17" s="10" t="n">
         <v>80200</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" s="10" t="s">
+      <c r="L17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="8" t="n">
+      <c r="E18" s="10" t="n">
         <v>716053048</v>
       </c>
-      <c r="F18" s="8" t="n">
+      <c r="F18" s="10" t="n">
         <v>722440351</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="17" t="n">
+      <c r="H18" s="19" t="n">
         <v>1058</v>
       </c>
-      <c r="I18" s="8" t="n">
+      <c r="I18" s="10" t="n">
         <v>618</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="10" t="s">
+      <c r="L18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="21" t="n">
+      <c r="E19" s="23" t="n">
         <v>713464224</v>
       </c>
-      <c r="F19" s="21" t="n">
+      <c r="F19" s="23" t="n">
         <v>722528952</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="8" t="n">
+      <c r="H19" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="I19" s="21" t="n">
+      <c r="I19" s="23" t="n">
         <v>70101</v>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="6" t="s">
+      <c r="J19" s="15"/>
+      <c r="K19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19" s="10" t="s">
+      <c r="L19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5"/>
-      <c r="M20" s="10" t="s">
+      <c r="A20" s="7"/>
+      <c r="M20" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="25" t="n">
+      <c r="E21" s="27" t="n">
         <v>718939726</v>
       </c>
-      <c r="F21" s="26" t="n">
+      <c r="F21" s="28" t="n">
         <v>720770926</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="H21" s="27" t="n">
+      <c r="H21" s="29" t="n">
         <v>18554</v>
       </c>
-      <c r="I21" s="27" t="n">
+      <c r="I21" s="29" t="n">
         <v>500</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="J21" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="K21" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="L21" s="28" t="s">
+      <c r="L21" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="30" t="n">
+      <c r="E22" s="32" t="n">
         <v>115161633</v>
       </c>
-      <c r="F22" s="26" t="n">
+      <c r="F22" s="28" t="n">
         <v>722273969</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="25" t="n">
+      <c r="H22" s="27" t="n">
         <v>15824</v>
       </c>
-      <c r="I22" s="25" t="n">
+      <c r="I22" s="27" t="n">
         <v>100</v>
       </c>
-      <c r="J22" s="31" t="s">
+      <c r="J22" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="22" t="s">
+      <c r="K22" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="L22" s="28" t="s">
+      <c r="L22" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="30" t="n">
+      <c r="E23" s="32" t="n">
         <v>795272225</v>
       </c>
-      <c r="F23" s="26" t="n">
+      <c r="F23" s="28" t="n">
         <v>722942015</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="33" t="s">
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="K23" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="L23" s="28" t="s">
+      <c r="L23" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="M23" s="10" t="s">
+      <c r="M23" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="30" t="n">
+      <c r="E24" s="32" t="n">
         <v>703478385</v>
       </c>
-      <c r="F24" s="26" t="n">
+      <c r="F24" s="28" t="n">
         <v>711245373</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="31" t="s">
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="K24" s="22" t="s">
+      <c r="K24" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="L24" s="28" t="s">
+      <c r="L24" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="M24" s="10" t="s">
+      <c r="M24" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="26" t="n">
+      <c r="E25" s="15"/>
+      <c r="F25" s="28" t="n">
         <v>715091617</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H25" s="25" t="n">
+      <c r="H25" s="27" t="n">
         <v>16978</v>
       </c>
-      <c r="I25" s="25" t="n">
+      <c r="I25" s="27" t="n">
         <v>620</v>
       </c>
-      <c r="J25" s="31" t="s">
+      <c r="J25" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="22" t="s">
+      <c r="K25" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="L25" s="28" t="s">
+      <c r="L25" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="M25" s="10" t="s">
+      <c r="M25" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="30" t="n">
+      <c r="E26" s="32" t="n">
         <v>798473755</v>
       </c>
-      <c r="F26" s="26" t="n">
+      <c r="F26" s="28" t="n">
         <v>724063332</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="H26" s="35" t="n">
+      <c r="H26" s="37" t="n">
         <v>62644</v>
       </c>
-      <c r="I26" s="35" t="n">
+      <c r="I26" s="37" t="n">
         <v>200</v>
       </c>
-      <c r="J26" s="36" t="s">
+      <c r="J26" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="K26" s="22" t="s">
+      <c r="K26" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="L26" s="28" t="s">
+      <c r="L26" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="M26" s="10" t="s">
+      <c r="M26" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="30" t="n">
+      <c r="E27" s="32" t="n">
         <v>717485356</v>
       </c>
-      <c r="F27" s="26" t="n">
+      <c r="F27" s="28" t="n">
         <v>705384811</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="H27" s="25" t="n">
+      <c r="H27" s="27" t="n">
         <v>1250</v>
       </c>
-      <c r="I27" s="25" t="n">
+      <c r="I27" s="27" t="n">
         <v>232</v>
       </c>
-      <c r="J27" s="33" t="s">
+      <c r="J27" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="K27" s="22" t="s">
+      <c r="K27" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="L27" s="28" t="s">
+      <c r="L27" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="M27" s="10" t="s">
+      <c r="M27" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="25" t="n">
+      <c r="E28" s="27" t="n">
         <v>714131731</v>
       </c>
-      <c r="F28" s="26" t="n">
+      <c r="F28" s="28" t="n">
         <v>713544863</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="H28" s="27" t="n">
+      <c r="H28" s="29" t="n">
         <v>158</v>
       </c>
-      <c r="I28" s="27" t="n">
+      <c r="I28" s="29" t="n">
         <v>60103</v>
       </c>
-      <c r="J28" s="28" t="s">
+      <c r="J28" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="K28" s="22" t="s">
+      <c r="K28" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="L28" s="28" t="s">
+      <c r="L28" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="M28" s="10" t="s">
+      <c r="M28" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="30" t="n">
+      <c r="E29" s="32" t="n">
         <v>722467498</v>
       </c>
-      <c r="F29" s="26" t="n">
+      <c r="F29" s="28" t="n">
         <v>722266542</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="H29" s="25" t="n">
+      <c r="H29" s="27" t="n">
         <v>30131</v>
       </c>
-      <c r="I29" s="25" t="n">
+      <c r="I29" s="27" t="n">
         <v>100</v>
       </c>
-      <c r="J29" s="31" t="s">
+      <c r="J29" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="K29" s="22" t="s">
+      <c r="K29" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="L29" s="28" t="s">
+      <c r="L29" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="M29" s="10" t="s">
+      <c r="M29" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="39" t="n">
+      <c r="E30" s="41" t="n">
         <v>104338891</v>
       </c>
-      <c r="F30" s="40" t="n">
+      <c r="F30" s="42" t="n">
         <v>716696388</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="H30" s="41" t="n">
+      <c r="H30" s="43" t="n">
         <v>3000000</v>
       </c>
-      <c r="I30" s="42" t="n">
+      <c r="I30" s="44" t="n">
         <v>80118</v>
       </c>
-      <c r="J30" s="43" t="s">
+      <c r="J30" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="K30" s="22" t="s">
+      <c r="K30" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="L30" s="28" t="s">
+      <c r="L30" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="M30" s="10" t="s">
+      <c r="M30" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="25" t="n">
+      <c r="E31" s="27" t="n">
         <v>757048079</v>
       </c>
-      <c r="F31" s="26" t="n">
+      <c r="F31" s="28" t="n">
         <v>722900869</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="H31" s="27" t="n">
+      <c r="H31" s="29" t="n">
         <v>206</v>
       </c>
-      <c r="I31" s="27" t="n">
+      <c r="I31" s="29" t="n">
         <v>1100</v>
       </c>
-      <c r="J31" s="28" t="s">
+      <c r="J31" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="K31" s="22" t="s">
+      <c r="K31" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="L31" s="28" t="s">
+      <c r="L31" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="M31" s="10" t="s">
+      <c r="M31" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="46" t="s">
+      <c r="D32" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="47" t="n">
+      <c r="E32" s="49" t="n">
         <v>111203044</v>
       </c>
-      <c r="F32" s="48" t="n">
+      <c r="F32" s="50" t="n">
         <v>797105254</v>
       </c>
-      <c r="G32" s="49" t="s">
+      <c r="G32" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="H32" s="48" t="n">
+      <c r="H32" s="50" t="n">
         <v>39</v>
       </c>
-      <c r="I32" s="48" t="n">
+      <c r="I32" s="50" t="n">
         <v>39</v>
       </c>
-      <c r="J32" s="50" t="s">
+      <c r="J32" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="K32" s="22" t="s">
+      <c r="K32" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="L32" s="28" t="s">
+      <c r="L32" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="M32" s="10" t="s">
+      <c r="M32" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="39" t="n">
+      <c r="E33" s="41" t="n">
         <v>707729866</v>
       </c>
-      <c r="F33" s="40" t="n">
+      <c r="F33" s="42" t="n">
         <v>707876569</v>
       </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="22" t="s">
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="L33" s="28" t="s">
+      <c r="L33" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="M33" s="10" t="s">
+      <c r="M33" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="51" t="n">
+      <c r="E34" s="53" t="n">
         <v>712945066</v>
       </c>
-      <c r="F34" s="12" t="n">
+      <c r="F34" s="14" t="n">
         <v>713321324</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="H34" s="52" t="n">
+      <c r="H34" s="54" t="n">
         <v>66</v>
       </c>
-      <c r="I34" s="52" t="n">
+      <c r="I34" s="54" t="n">
         <v>40110</v>
       </c>
-      <c r="J34" s="15" t="s">
+      <c r="J34" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="K34" s="22" t="s">
+      <c r="K34" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="28" t="s">
+      <c r="L34" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="M34" s="10" t="s">
+      <c r="M34" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="21" t="n">
+      <c r="E35" s="23" t="n">
         <v>111551565</v>
       </c>
-      <c r="F35" s="8" t="n">
+      <c r="F35" s="10" t="n">
         <v>733703569</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="H35" s="53" t="n">
+      <c r="H35" s="55" t="n">
         <v>40016</v>
       </c>
-      <c r="I35" s="53" t="n">
+      <c r="I35" s="55" t="n">
         <v>100</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="J35" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K35" s="22" t="s">
+      <c r="K35" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="L35" s="28" t="s">
+      <c r="L35" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="M35" s="10" t="s">
+      <c r="M35" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="22" t="s">
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="L36" s="28" t="s">
+      <c r="L36" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="M36" s="10" t="s">
+      <c r="M36" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="39" t="n">
+      <c r="E37" s="41" t="n">
         <v>795588893</v>
       </c>
-      <c r="F37" s="40" t="n">
+      <c r="F37" s="42" t="n">
         <v>718944466</v>
       </c>
-      <c r="G37" s="34" t="s">
+      <c r="G37" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="43" t="s">
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="K37" s="22" t="s">
+      <c r="K37" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="L37" s="28" t="s">
+      <c r="L37" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="M37" s="10" t="s">
+      <c r="M37" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M38" s="10" t="s">
+      <c r="M38" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="26" t="n">
+      <c r="E39" s="28" t="n">
         <v>741952611</v>
       </c>
-      <c r="F39" s="26" t="n">
+      <c r="F39" s="28" t="n">
         <v>721356304</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="H39" s="25" t="n">
+      <c r="H39" s="27" t="n">
         <v>863</v>
       </c>
-      <c r="I39" s="25" t="n">
+      <c r="I39" s="27" t="n">
         <v>40123</v>
       </c>
-      <c r="J39" s="56" t="s">
+      <c r="J39" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="K39" s="23" t="s">
+      <c r="K39" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L39" s="56" t="s">
+      <c r="L39" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="M39" s="10" t="s">
+      <c r="M39" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="8" t="n">
+      <c r="E40" s="10" t="n">
         <v>105473894</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="9" t="s">
+      <c r="F40" s="15"/>
+      <c r="G40" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="53" t="n">
+      <c r="H40" s="15"/>
+      <c r="I40" s="55" t="n">
         <v>100</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="J40" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="K40" s="23" t="s">
+      <c r="K40" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L40" s="56" t="s">
+      <c r="L40" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="M40" s="10" t="s">
+      <c r="M40" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="55" t="s">
+      <c r="A41" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="8" t="n">
+      <c r="E41" s="10" t="n">
         <v>735845272</v>
       </c>
-      <c r="F41" s="8" t="n">
+      <c r="F41" s="10" t="n">
         <v>720849424</v>
       </c>
-      <c r="G41" s="34" t="s">
+      <c r="G41" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="H41" s="53" t="n">
+      <c r="H41" s="55" t="n">
         <v>816</v>
       </c>
-      <c r="I41" s="53" t="n">
+      <c r="I41" s="55" t="n">
         <v>60100</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="J41" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="K41" s="23" t="s">
+      <c r="K41" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L41" s="56" t="s">
+      <c r="L41" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="M41" s="10" t="s">
+      <c r="M41" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="8" t="n">
+      <c r="E42" s="10" t="n">
         <v>722415049</v>
       </c>
-      <c r="F42" s="8" t="n">
+      <c r="F42" s="10" t="n">
         <v>722415049</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="H42" s="53" t="n">
+      <c r="H42" s="55" t="n">
         <v>44308</v>
       </c>
-      <c r="I42" s="53" t="n">
+      <c r="I42" s="55" t="n">
         <v>100</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="J42" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K42" s="23" t="s">
+      <c r="K42" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L42" s="56" t="s">
+      <c r="L42" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="M42" s="10" t="s">
+      <c r="M42" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="55" t="s">
+      <c r="A43" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="C43" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="8" t="n">
+      <c r="E43" s="10" t="n">
         <v>720801778</v>
       </c>
-      <c r="F43" s="8" t="n">
+      <c r="F43" s="10" t="n">
         <v>720801778</v>
       </c>
-      <c r="G43" s="58" t="s">
+      <c r="G43" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="H43" s="53" t="n">
+      <c r="H43" s="55" t="n">
         <v>116</v>
       </c>
-      <c r="I43" s="53" t="n">
+      <c r="I43" s="55" t="n">
         <v>40105</v>
       </c>
-      <c r="J43" s="10" t="s">
+      <c r="J43" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="K43" s="23" t="s">
+      <c r="K43" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L43" s="56" t="s">
+      <c r="L43" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="M43" s="10" t="s">
+      <c r="M43" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="55" t="s">
+      <c r="A44" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="8" t="n">
+      <c r="E44" s="10" t="n">
         <v>713321324</v>
       </c>
-      <c r="F44" s="8" t="n">
+      <c r="F44" s="10" t="n">
         <v>712945066</v>
       </c>
-      <c r="G44" s="58" t="s">
+      <c r="G44" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="H44" s="53" t="n">
+      <c r="H44" s="55" t="n">
         <v>66</v>
       </c>
-      <c r="I44" s="53" t="n">
+      <c r="I44" s="55" t="n">
         <v>40110</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="J44" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="K44" s="23" t="s">
+      <c r="K44" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L44" s="56" t="s">
+      <c r="L44" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="M44" s="10" t="s">
+      <c r="M44" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="26" t="n">
+      <c r="E45" s="28" t="n">
         <v>722941689</v>
       </c>
-      <c r="F45" s="26" t="n">
+      <c r="F45" s="28" t="n">
         <v>729613398</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="56" t="s">
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="K45" s="23" t="s">
+      <c r="K45" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L45" s="56" t="s">
+      <c r="L45" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="M45" s="10" t="s">
+      <c r="M45" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="8" t="n">
+      <c r="E46" s="10" t="n">
         <v>710223468</v>
       </c>
-      <c r="F46" s="8" t="n">
+      <c r="F46" s="10" t="n">
         <v>799726286</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H46" s="53" t="n">
+      <c r="H46" s="55" t="n">
         <v>138</v>
       </c>
-      <c r="I46" s="53" t="n">
+      <c r="I46" s="55" t="n">
         <v>40700</v>
       </c>
-      <c r="J46" s="10" t="s">
+      <c r="J46" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="K46" s="23" t="s">
+      <c r="K46" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L46" s="56" t="s">
+      <c r="L46" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="M46" s="10" t="s">
+      <c r="M46" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="55" t="s">
+      <c r="A47" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="8" t="n">
+      <c r="E47" s="10" t="n">
         <v>703465215</v>
       </c>
-      <c r="F47" s="8" t="n">
+      <c r="F47" s="10" t="n">
         <v>703465215</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="H47" s="53" t="n">
+      <c r="H47" s="55" t="n">
         <v>70</v>
       </c>
-      <c r="I47" s="53" t="n">
+      <c r="I47" s="55" t="n">
         <v>40202</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="K47" s="23" t="s">
+      <c r="K47" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L47" s="56" t="s">
+      <c r="L47" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="M47" s="10" t="s">
+      <c r="M47" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="8" t="n">
+      <c r="E48" s="10" t="n">
         <v>740715782</v>
       </c>
-      <c r="F48" s="8" t="n">
+      <c r="F48" s="10" t="n">
         <v>725479361</v>
       </c>
-      <c r="G48" s="34" t="s">
+      <c r="G48" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="H48" s="53" t="n">
+      <c r="H48" s="55" t="n">
         <v>19071</v>
       </c>
-      <c r="I48" s="53" t="n">
+      <c r="I48" s="55" t="n">
         <v>501</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="J48" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="K48" s="23" t="s">
+      <c r="K48" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L48" s="56" t="s">
+      <c r="L48" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="M48" s="10" t="s">
+      <c r="M48" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="55" t="s">
+      <c r="A49" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E49" s="8" t="n">
+      <c r="E49" s="10" t="n">
         <v>791922061</v>
       </c>
-      <c r="F49" s="8" t="n">
+      <c r="F49" s="10" t="n">
         <v>723515712</v>
       </c>
-      <c r="G49" s="34" t="s">
+      <c r="G49" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="H49" s="53" t="n">
+      <c r="H49" s="55" t="n">
         <v>1030</v>
       </c>
-      <c r="I49" s="53" t="n">
+      <c r="I49" s="55" t="n">
         <v>1030</v>
       </c>
-      <c r="J49" s="10" t="s">
+      <c r="J49" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="K49" s="23" t="s">
+      <c r="K49" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L49" s="56" t="s">
+      <c r="L49" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="M49" s="10" t="s">
+      <c r="M49" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C50" s="57" t="s">
+      <c r="C50" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="53" t="n">
+      <c r="E50" s="55" t="n">
         <v>741630343</v>
       </c>
-      <c r="F50" s="8" t="n">
+      <c r="F50" s="10" t="n">
         <v>721802582</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="H50" s="8" t="n">
+      <c r="H50" s="10" t="n">
         <v>30254</v>
       </c>
-      <c r="I50" s="20" t="n">
+      <c r="I50" s="22" t="n">
         <v>100</v>
       </c>
-      <c r="J50" s="10" t="s">
+      <c r="J50" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K50" s="23" t="s">
+      <c r="K50" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L50" s="56" t="s">
+      <c r="L50" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="M50" s="10" t="s">
+      <c r="M50" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="55" t="s">
+      <c r="A51" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="C51" s="38" t="s">
+      <c r="C51" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="D51" s="38" t="s">
+      <c r="D51" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="59" t="n">
+      <c r="E51" s="61" t="n">
         <v>757457713</v>
       </c>
-      <c r="F51" s="40" t="n">
+      <c r="F51" s="42" t="n">
         <v>718830398</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="G51" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="H51" s="40" t="n">
+      <c r="H51" s="42" t="n">
         <v>22</v>
       </c>
-      <c r="I51" s="9"/>
-      <c r="J51" s="43" t="s">
+      <c r="I51" s="11"/>
+      <c r="J51" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="K51" s="23" t="s">
+      <c r="K51" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L51" s="56" t="s">
+      <c r="L51" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="M51" s="10" t="s">
+      <c r="M51" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="55" t="s">
+      <c r="A52" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="30" t="n">
+      <c r="E52" s="32" t="n">
         <v>769747248</v>
       </c>
-      <c r="F52" s="26" t="n">
+      <c r="F52" s="28" t="n">
         <v>728642668</v>
       </c>
-      <c r="G52" s="34" t="s">
+      <c r="G52" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="60" t="n">
+      <c r="H52" s="15"/>
+      <c r="I52" s="62" t="n">
         <v>100</v>
       </c>
-      <c r="J52" s="56" t="s">
+      <c r="J52" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="K52" s="23" t="s">
+      <c r="K52" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L52" s="56" t="s">
+      <c r="L52" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="M52" s="10" t="s">
+      <c r="M52" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E53" s="30" t="n">
+      <c r="E53" s="32" t="n">
         <v>794150763</v>
       </c>
-      <c r="F53" s="26" t="n">
+      <c r="F53" s="28" t="n">
         <v>726569402</v>
       </c>
-      <c r="G53" s="34" t="s">
+      <c r="G53" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="H53" s="26" t="n">
+      <c r="H53" s="28" t="n">
         <v>49506</v>
       </c>
-      <c r="I53" s="60" t="n">
+      <c r="I53" s="62" t="n">
         <v>100</v>
       </c>
-      <c r="J53" s="28" t="s">
+      <c r="J53" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="K53" s="23" t="s">
+      <c r="K53" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L53" s="56" t="s">
+      <c r="L53" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="M53" s="10" t="s">
+      <c r="M53" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="55" t="s">
+      <c r="A54" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="27" t="n">
+      <c r="E54" s="29" t="n">
         <v>795228897</v>
       </c>
-      <c r="F54" s="26" t="n">
+      <c r="F54" s="28" t="n">
         <v>718067691</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="H54" s="26" t="n">
+      <c r="H54" s="28" t="n">
         <v>5400</v>
       </c>
-      <c r="I54" s="60" t="n">
+      <c r="I54" s="62" t="n">
         <v>506</v>
       </c>
-      <c r="J54" s="56" t="s">
+      <c r="J54" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="K54" s="23" t="s">
+      <c r="K54" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L54" s="56" t="s">
+      <c r="L54" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="M54" s="10" t="s">
+      <c r="M54" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="55" t="s">
+      <c r="A55" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="26" t="n">
+      <c r="E55" s="11"/>
+      <c r="F55" s="28" t="n">
         <v>724529037</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="H55" s="26" t="n">
+      <c r="H55" s="28" t="n">
         <v>564</v>
       </c>
-      <c r="I55" s="60" t="n">
+      <c r="I55" s="62" t="n">
         <v>100</v>
       </c>
-      <c r="J55" s="56" t="s">
+      <c r="J55" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="K55" s="23" t="s">
+      <c r="K55" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L55" s="56" t="s">
+      <c r="L55" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="M55" s="10" t="s">
+      <c r="M55" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M56" s="10" t="s">
+      <c r="M56" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="55" t="s">
+      <c r="A57" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="B57" s="61" t="s">
+      <c r="B57" s="63" t="s">
         <v>257</v>
       </c>
-      <c r="C57" s="62" t="s">
+      <c r="C57" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="D57" s="63" t="s">
+      <c r="D57" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="E57" s="64" t="n">
+      <c r="E57" s="66" t="n">
         <v>797035591</v>
       </c>
-      <c r="F57" s="64" t="n">
+      <c r="F57" s="66" t="n">
         <v>722980773</v>
       </c>
-      <c r="G57" s="65" t="s">
+      <c r="G57" s="67" t="s">
         <v>259</v>
       </c>
-      <c r="H57" s="66" t="n">
+      <c r="H57" s="68" t="n">
         <v>90572</v>
       </c>
-      <c r="I57" s="64" t="n">
+      <c r="I57" s="66" t="n">
         <v>80100</v>
       </c>
-      <c r="J57" s="67" t="s">
+      <c r="J57" s="69" t="s">
         <v>260</v>
       </c>
-      <c r="K57" s="61" t="s">
+      <c r="K57" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L57" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M57" s="10" t="s">
+      <c r="L57" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M57" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="55" t="s">
+      <c r="A58" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="B58" s="63" t="s">
+      <c r="B58" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="C58" s="61" t="s">
+      <c r="C58" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="D58" s="68" t="s">
+      <c r="D58" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="69" t="n">
+      <c r="E58" s="71" t="n">
         <v>792710788</v>
       </c>
-      <c r="F58" s="69" t="n">
+      <c r="F58" s="71" t="n">
         <v>724968432</v>
       </c>
-      <c r="G58" s="65" t="s">
+      <c r="G58" s="67" t="s">
         <v>265</v>
       </c>
-      <c r="H58" s="69" t="n">
+      <c r="H58" s="71" t="n">
         <v>48</v>
       </c>
-      <c r="I58" s="65"/>
-      <c r="J58" s="68" t="s">
+      <c r="I58" s="67"/>
+      <c r="J58" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="K58" s="61" t="s">
+      <c r="K58" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L58" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M58" s="10" t="s">
+      <c r="L58" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M58" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="55" t="s">
+      <c r="A59" s="57" t="s">
         <v>266</v>
       </c>
-      <c r="B59" s="63" t="s">
+      <c r="B59" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="C59" s="68" t="s">
+      <c r="C59" s="70" t="s">
         <v>268</v>
       </c>
-      <c r="D59" s="68" t="s">
+      <c r="D59" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="69" t="n">
+      <c r="E59" s="71" t="n">
         <v>741897880</v>
       </c>
-      <c r="F59" s="70" t="n">
+      <c r="F59" s="72" t="n">
         <v>12560000000</v>
       </c>
-      <c r="G59" s="65" t="s">
+      <c r="G59" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="H59" s="71" t="n">
+      <c r="H59" s="73" t="n">
         <v>42422</v>
       </c>
-      <c r="I59" s="69" t="n">
+      <c r="I59" s="71" t="n">
         <v>100</v>
       </c>
-      <c r="J59" s="68" t="s">
+      <c r="J59" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="K59" s="61" t="s">
+      <c r="K59" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L59" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M59" s="10" t="s">
+      <c r="L59" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M59" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="55" t="s">
+      <c r="A60" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="B60" s="63" t="s">
+      <c r="B60" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="C60" s="61" t="s">
+      <c r="C60" s="63" t="s">
         <v>272</v>
       </c>
-      <c r="D60" s="68" t="s">
+      <c r="D60" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="69" t="n">
+      <c r="E60" s="71" t="n">
         <v>115938126</v>
       </c>
-      <c r="F60" s="69" t="n">
+      <c r="F60" s="71" t="n">
         <v>788448378</v>
       </c>
-      <c r="G60" s="72" t="s">
+      <c r="G60" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="H60" s="73" t="s">
+      <c r="H60" s="75" t="s">
         <v>274</v>
       </c>
-      <c r="I60" s="69" t="n">
+      <c r="I60" s="71" t="n">
         <v>30600</v>
       </c>
-      <c r="J60" s="61" t="s">
+      <c r="J60" s="63" t="s">
         <v>275</v>
       </c>
-      <c r="K60" s="61" t="s">
+      <c r="K60" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L60" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M60" s="10" t="s">
+      <c r="L60" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M60" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="55" t="s">
+      <c r="A61" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="B61" s="63" t="s">
+      <c r="B61" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="C61" s="74" t="s">
+      <c r="C61" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="D61" s="68" t="s">
+      <c r="D61" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="69" t="n">
+      <c r="E61" s="71" t="n">
         <v>112423124</v>
       </c>
-      <c r="F61" s="69" t="n">
+      <c r="F61" s="71" t="n">
         <v>72280063</v>
       </c>
-      <c r="G61" s="65" t="s">
+      <c r="G61" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="H61" s="65"/>
-      <c r="I61" s="65"/>
-      <c r="J61" s="68" t="s">
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="K61" s="61" t="s">
+      <c r="K61" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L61" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M61" s="10" t="s">
+      <c r="L61" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M61" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="55" t="s">
+      <c r="A62" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="B62" s="63" t="s">
+      <c r="B62" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="C62" s="63" t="s">
+      <c r="C62" s="65" t="s">
         <v>282</v>
       </c>
-      <c r="D62" s="68" t="s">
+      <c r="D62" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="69" t="n">
+      <c r="E62" s="71" t="n">
         <v>740285489</v>
       </c>
-      <c r="F62" s="69" t="n">
+      <c r="F62" s="71" t="n">
         <v>720282942</v>
       </c>
-      <c r="G62" s="75" t="s">
+      <c r="G62" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="H62" s="67" t="s">
+      <c r="H62" s="69" t="s">
         <v>284</v>
       </c>
-      <c r="I62" s="69" t="n">
+      <c r="I62" s="71" t="n">
         <v>220</v>
       </c>
-      <c r="J62" s="68" t="s">
+      <c r="J62" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="K62" s="61" t="s">
+      <c r="K62" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L62" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M62" s="10" t="s">
+      <c r="L62" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M62" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="55" t="s">
+      <c r="A63" s="57" t="s">
         <v>285</v>
       </c>
-      <c r="B63" s="63" t="s">
+      <c r="B63" s="65" t="s">
         <v>286</v>
       </c>
-      <c r="C63" s="73" t="s">
+      <c r="C63" s="75" t="s">
         <v>287</v>
       </c>
-      <c r="D63" s="68" t="s">
+      <c r="D63" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E63" s="69" t="n">
+      <c r="E63" s="71" t="n">
         <v>742469409</v>
       </c>
-      <c r="F63" s="69" t="n">
+      <c r="F63" s="71" t="n">
         <v>725735942</v>
       </c>
-      <c r="G63" s="75" t="s">
+      <c r="G63" s="77" t="s">
         <v>288</v>
       </c>
-      <c r="H63" s="69" t="n">
+      <c r="H63" s="71" t="n">
         <v>25</v>
       </c>
-      <c r="I63" s="69" t="n">
+      <c r="I63" s="71" t="n">
         <v>50200</v>
       </c>
-      <c r="J63" s="68" t="s">
+      <c r="J63" s="70" t="s">
         <v>289</v>
       </c>
-      <c r="K63" s="61" t="s">
+      <c r="K63" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L63" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M63" s="10" t="s">
+      <c r="L63" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M63" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="55" t="s">
+      <c r="A64" s="57" t="s">
         <v>290</v>
       </c>
-      <c r="B64" s="61" t="s">
+      <c r="B64" s="63" t="s">
         <v>291</v>
       </c>
-      <c r="C64" s="61" t="s">
+      <c r="C64" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="D64" s="68" t="s">
+      <c r="D64" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E64" s="69" t="n">
+      <c r="E64" s="71" t="n">
         <v>795626001</v>
       </c>
-      <c r="F64" s="69" t="n">
+      <c r="F64" s="71" t="n">
         <v>724800844</v>
       </c>
-      <c r="G64" s="65" t="s">
+      <c r="G64" s="67" t="s">
         <v>293</v>
       </c>
-      <c r="H64" s="65"/>
-      <c r="I64" s="65"/>
-      <c r="J64" s="68" t="s">
+      <c r="H64" s="67"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="K64" s="61" t="s">
+      <c r="K64" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L64" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M64" s="10" t="s">
+      <c r="L64" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M64" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="55" t="s">
+      <c r="A65" s="57" t="s">
         <v>294</v>
       </c>
-      <c r="B65" s="61" t="s">
+      <c r="B65" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="64" t="s">
         <v>296</v>
       </c>
-      <c r="D65" s="76" t="s">
+      <c r="D65" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="E65" s="69" t="n">
+      <c r="E65" s="71" t="n">
         <v>742561000</v>
       </c>
-      <c r="F65" s="69" t="n">
+      <c r="F65" s="71" t="n">
         <v>721820252</v>
       </c>
-      <c r="G65" s="65" t="s">
+      <c r="G65" s="67" t="s">
         <v>297</v>
       </c>
-      <c r="H65" s="77" t="n">
+      <c r="H65" s="79" t="n">
         <v>318</v>
       </c>
-      <c r="I65" s="65"/>
-      <c r="J65" s="78" t="s">
+      <c r="I65" s="67"/>
+      <c r="J65" s="80" t="s">
         <v>298</v>
       </c>
-      <c r="K65" s="61" t="s">
+      <c r="K65" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L65" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M65" s="10" t="s">
+      <c r="L65" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M65" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="55" t="s">
+      <c r="A66" s="57" t="s">
         <v>299</v>
       </c>
-      <c r="B66" s="63" t="s">
+      <c r="B66" s="65" t="s">
         <v>300</v>
       </c>
-      <c r="C66" s="79" t="s">
+      <c r="C66" s="81" t="s">
         <v>301</v>
       </c>
-      <c r="D66" s="79" t="s">
+      <c r="D66" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="E66" s="69" t="n">
+      <c r="E66" s="71" t="n">
         <v>728342354</v>
       </c>
-      <c r="F66" s="69" t="n">
+      <c r="F66" s="71" t="n">
         <v>775041815</v>
       </c>
-      <c r="G66" s="65" t="s">
+      <c r="G66" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="H66" s="80" t="n">
+      <c r="H66" s="82" t="n">
         <v>37</v>
       </c>
-      <c r="I66" s="80" t="n">
+      <c r="I66" s="82" t="n">
         <v>50107</v>
       </c>
-      <c r="J66" s="79" t="s">
+      <c r="J66" s="81" t="s">
         <v>303</v>
       </c>
-      <c r="K66" s="61" t="s">
+      <c r="K66" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L66" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M66" s="10" t="s">
+      <c r="L66" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M66" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="55" t="s">
+      <c r="A67" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="B67" s="63" t="s">
+      <c r="B67" s="65" t="s">
         <v>305</v>
       </c>
-      <c r="C67" s="61" t="s">
+      <c r="C67" s="63" t="s">
         <v>306</v>
       </c>
-      <c r="D67" s="76" t="s">
+      <c r="D67" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="E67" s="69" t="n">
+      <c r="E67" s="71" t="n">
         <v>79693871</v>
       </c>
-      <c r="F67" s="69" t="n">
+      <c r="F67" s="71" t="n">
         <v>720733093</v>
       </c>
-      <c r="G67" s="65" t="s">
+      <c r="G67" s="67" t="s">
         <v>307</v>
       </c>
-      <c r="H67" s="65"/>
-      <c r="I67" s="65"/>
-      <c r="J67" s="78" t="s">
+      <c r="H67" s="67"/>
+      <c r="I67" s="67"/>
+      <c r="J67" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K67" s="61" t="s">
+      <c r="K67" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L67" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M67" s="10" t="s">
+      <c r="L67" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M67" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="55" t="s">
+      <c r="A68" s="57" t="s">
         <v>308</v>
       </c>
-      <c r="B68" s="63" t="s">
+      <c r="B68" s="65" t="s">
         <v>309</v>
       </c>
-      <c r="C68" s="63" t="s">
+      <c r="C68" s="65" t="s">
         <v>310</v>
       </c>
-      <c r="D68" s="76" t="s">
+      <c r="D68" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="E68" s="69" t="n">
+      <c r="E68" s="71" t="n">
         <v>769309541</v>
       </c>
-      <c r="F68" s="69" t="n">
+      <c r="F68" s="71" t="n">
         <v>713572819</v>
       </c>
-      <c r="G68" s="75" t="s">
+      <c r="G68" s="77" t="s">
         <v>311</v>
       </c>
-      <c r="H68" s="69" t="n">
+      <c r="H68" s="71" t="n">
         <v>71</v>
       </c>
-      <c r="I68" s="77" t="n">
+      <c r="I68" s="79" t="n">
         <v>200</v>
       </c>
-      <c r="J68" s="63" t="s">
+      <c r="J68" s="65" t="s">
         <v>312</v>
       </c>
-      <c r="K68" s="61" t="s">
+      <c r="K68" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L68" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M68" s="10" t="s">
+      <c r="L68" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M68" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="55" t="s">
+      <c r="A69" s="57" t="s">
         <v>313</v>
       </c>
-      <c r="B69" s="61" t="s">
+      <c r="B69" s="63" t="s">
         <v>314</v>
       </c>
-      <c r="C69" s="61" t="s">
+      <c r="C69" s="63" t="s">
         <v>315</v>
       </c>
-      <c r="D69" s="81" t="s">
+      <c r="D69" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="E69" s="64" t="n">
+      <c r="E69" s="66" t="n">
         <v>111944252</v>
       </c>
-      <c r="F69" s="64" t="n">
+      <c r="F69" s="66" t="n">
         <v>721595965</v>
       </c>
-      <c r="G69" s="65" t="s">
+      <c r="G69" s="67" t="s">
         <v>316</v>
       </c>
-      <c r="H69" s="82" t="n">
+      <c r="H69" s="84" t="n">
         <v>9306</v>
       </c>
-      <c r="I69" s="82" t="n">
+      <c r="I69" s="84" t="n">
         <v>100</v>
       </c>
-      <c r="J69" s="83" t="s">
+      <c r="J69" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="K69" s="61" t="s">
+      <c r="K69" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L69" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M69" s="10" t="s">
+      <c r="L69" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M69" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="55" t="s">
+      <c r="A70" s="57" t="s">
         <v>317</v>
       </c>
-      <c r="B70" s="63" t="s">
+      <c r="B70" s="65" t="s">
         <v>318</v>
       </c>
-      <c r="C70" s="63" t="s">
+      <c r="C70" s="65" t="s">
         <v>319</v>
       </c>
-      <c r="D70" s="79" t="s">
+      <c r="D70" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="69" t="n">
+      <c r="E70" s="71" t="n">
         <v>702176162</v>
       </c>
-      <c r="F70" s="69" t="n">
+      <c r="F70" s="71" t="n">
         <v>721352159</v>
       </c>
-      <c r="G70" s="75" t="s">
+      <c r="G70" s="77" t="s">
         <v>320</v>
       </c>
-      <c r="H70" s="80" t="n">
+      <c r="H70" s="82" t="n">
         <v>163</v>
       </c>
-      <c r="I70" s="80" t="n">
+      <c r="I70" s="82" t="n">
         <v>208</v>
       </c>
-      <c r="J70" s="79" t="s">
+      <c r="J70" s="81" t="s">
         <v>321</v>
       </c>
-      <c r="K70" s="61" t="s">
+      <c r="K70" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L70" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M70" s="10" t="s">
+      <c r="L70" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M70" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="55" t="s">
+      <c r="A71" s="57" t="s">
         <v>322</v>
       </c>
-      <c r="B71" s="63" t="s">
+      <c r="B71" s="65" t="s">
         <v>323</v>
       </c>
-      <c r="C71" s="63" t="s">
+      <c r="C71" s="65" t="s">
         <v>324</v>
       </c>
-      <c r="D71" s="76" t="s">
+      <c r="D71" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="E71" s="69" t="n">
+      <c r="E71" s="71" t="n">
         <v>726964498</v>
       </c>
-      <c r="F71" s="69" t="n">
+      <c r="F71" s="71" t="n">
         <v>714415362</v>
       </c>
-      <c r="G71" s="75" t="s">
+      <c r="G71" s="77" t="s">
         <v>325</v>
       </c>
-      <c r="H71" s="77" t="n">
+      <c r="H71" s="79" t="n">
         <v>1323</v>
       </c>
-      <c r="I71" s="77" t="n">
+      <c r="I71" s="79" t="n">
         <v>621</v>
       </c>
-      <c r="J71" s="78" t="s">
+      <c r="J71" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K71" s="61" t="s">
+      <c r="K71" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L71" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M71" s="10" t="s">
+      <c r="L71" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M71" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="55" t="s">
+      <c r="A72" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="B72" s="63" t="s">
+      <c r="B72" s="65" t="s">
         <v>327</v>
       </c>
-      <c r="C72" s="63" t="s">
+      <c r="C72" s="65" t="s">
         <v>328</v>
       </c>
-      <c r="D72" s="84" t="s">
+      <c r="D72" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E72" s="64" t="n">
+      <c r="E72" s="66" t="n">
         <v>748319187</v>
       </c>
-      <c r="F72" s="64" t="n">
+      <c r="F72" s="66" t="n">
         <v>714735725</v>
       </c>
-      <c r="G72" s="75" t="s">
+      <c r="G72" s="77" t="s">
         <v>329</v>
       </c>
-      <c r="H72" s="85" t="n">
+      <c r="H72" s="87" t="n">
         <v>54871</v>
       </c>
-      <c r="I72" s="82" t="n">
+      <c r="I72" s="84" t="n">
         <v>200</v>
       </c>
-      <c r="J72" s="83" t="s">
+      <c r="J72" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="K72" s="61" t="s">
+      <c r="K72" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L72" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M72" s="10" t="s">
+      <c r="L72" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M72" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="55" t="s">
+      <c r="A73" s="57" t="s">
         <v>330</v>
       </c>
-      <c r="B73" s="63" t="s">
+      <c r="B73" s="65" t="s">
         <v>331</v>
       </c>
-      <c r="C73" s="61" t="s">
+      <c r="C73" s="63" t="s">
         <v>332</v>
       </c>
-      <c r="D73" s="86" t="s">
+      <c r="D73" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="E73" s="69" t="n">
+      <c r="E73" s="71" t="n">
         <v>713945787</v>
       </c>
-      <c r="F73" s="69" t="n">
+      <c r="F73" s="71" t="n">
         <v>722702673</v>
       </c>
-      <c r="G73" s="65" t="s">
+      <c r="G73" s="67" t="s">
         <v>333</v>
       </c>
-      <c r="H73" s="67" t="s">
+      <c r="H73" s="69" t="s">
         <v>334</v>
       </c>
-      <c r="I73" s="77" t="n">
+      <c r="I73" s="79" t="n">
         <v>902</v>
       </c>
-      <c r="J73" s="78" t="s">
+      <c r="J73" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="K73" s="61" t="s">
+      <c r="K73" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L73" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M73" s="10" t="s">
+      <c r="L73" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M73" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="55" t="s">
+      <c r="A74" s="57" t="s">
         <v>335</v>
       </c>
-      <c r="B74" s="61" t="s">
+      <c r="B74" s="63" t="s">
         <v>336</v>
       </c>
-      <c r="C74" s="61" t="s">
+      <c r="C74" s="63" t="s">
         <v>337</v>
       </c>
-      <c r="D74" s="81" t="s">
+      <c r="D74" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="E74" s="64" t="n">
+      <c r="E74" s="66" t="n">
         <v>110075959</v>
       </c>
-      <c r="F74" s="64" t="n">
+      <c r="F74" s="66" t="n">
         <v>799432731</v>
       </c>
-      <c r="G74" s="65" t="s">
+      <c r="G74" s="67" t="s">
         <v>338</v>
       </c>
-      <c r="H74" s="85" t="n">
+      <c r="H74" s="87" t="n">
         <v>30621</v>
       </c>
-      <c r="I74" s="82" t="n">
+      <c r="I74" s="84" t="n">
         <v>100</v>
       </c>
-      <c r="J74" s="83" t="s">
+      <c r="J74" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="K74" s="61" t="s">
+      <c r="K74" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L74" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M74" s="10" t="s">
+      <c r="L74" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M74" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="55" t="s">
+      <c r="A75" s="57" t="s">
         <v>339</v>
       </c>
-      <c r="B75" s="61" t="s">
+      <c r="B75" s="63" t="s">
         <v>340</v>
       </c>
-      <c r="C75" s="61" t="s">
+      <c r="C75" s="63" t="s">
         <v>341</v>
       </c>
-      <c r="D75" s="81" t="s">
+      <c r="D75" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="E75" s="64" t="n">
+      <c r="E75" s="66" t="n">
         <v>110287722</v>
       </c>
-      <c r="F75" s="64" t="n">
+      <c r="F75" s="66" t="n">
         <v>720713378</v>
       </c>
-      <c r="G75" s="65" t="s">
+      <c r="G75" s="67" t="s">
         <v>342</v>
       </c>
-      <c r="H75" s="64" t="n">
+      <c r="H75" s="66" t="n">
         <v>66</v>
       </c>
-      <c r="I75" s="82" t="n">
+      <c r="I75" s="84" t="n">
         <v>100</v>
       </c>
-      <c r="J75" s="84" t="s">
+      <c r="J75" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="K75" s="61" t="s">
+      <c r="K75" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L75" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M75" s="10" t="s">
+      <c r="L75" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M75" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="55" t="s">
+      <c r="A76" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="B76" s="63" t="s">
+      <c r="B76" s="65" t="s">
         <v>344</v>
       </c>
-      <c r="C76" s="73" t="s">
+      <c r="C76" s="75" t="s">
         <v>345</v>
       </c>
-      <c r="D76" s="76" t="s">
+      <c r="D76" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="E76" s="69" t="n">
+      <c r="E76" s="71" t="n">
         <v>748085935</v>
       </c>
-      <c r="F76" s="69" t="n">
+      <c r="F76" s="71" t="n">
         <v>724128419</v>
       </c>
-      <c r="G76" s="72" t="s">
+      <c r="G76" s="74" t="s">
         <v>346</v>
       </c>
-      <c r="H76" s="77" t="n">
+      <c r="H76" s="79" t="n">
         <v>1937</v>
       </c>
-      <c r="I76" s="80" t="n">
+      <c r="I76" s="82" t="n">
         <v>30200</v>
       </c>
-      <c r="J76" s="78" t="s">
+      <c r="J76" s="80" t="s">
         <v>347</v>
       </c>
-      <c r="K76" s="61" t="s">
+      <c r="K76" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L76" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M76" s="10" t="s">
+      <c r="L76" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M76" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="55" t="s">
+      <c r="A77" s="57" t="s">
         <v>348</v>
       </c>
-      <c r="B77" s="61" t="s">
+      <c r="B77" s="63" t="s">
         <v>349</v>
       </c>
-      <c r="C77" s="74" t="s">
+      <c r="C77" s="76" t="s">
         <v>350</v>
       </c>
-      <c r="D77" s="84" t="s">
+      <c r="D77" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E77" s="64" t="n">
+      <c r="E77" s="66" t="n">
         <v>769247778</v>
       </c>
-      <c r="F77" s="64" t="n">
+      <c r="F77" s="66" t="n">
         <v>722300902</v>
       </c>
-      <c r="G77" s="72" t="s">
+      <c r="G77" s="74" t="s">
         <v>351</v>
       </c>
-      <c r="H77" s="64" t="n">
+      <c r="H77" s="66" t="n">
         <v>57</v>
       </c>
-      <c r="I77" s="82" t="n">
+      <c r="I77" s="84" t="n">
         <v>200</v>
       </c>
-      <c r="J77" s="84" t="s">
+      <c r="J77" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="K77" s="61" t="s">
+      <c r="K77" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L77" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M77" s="10" t="s">
+      <c r="L77" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M77" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="55" t="s">
+      <c r="A78" s="57" t="s">
         <v>352</v>
       </c>
-      <c r="B78" s="63" t="s">
+      <c r="B78" s="65" t="s">
         <v>353</v>
       </c>
-      <c r="C78" s="73" t="s">
+      <c r="C78" s="75" t="s">
         <v>354</v>
       </c>
-      <c r="D78" s="63" t="s">
+      <c r="D78" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="64" t="n">
+      <c r="E78" s="66" t="n">
         <v>759429733</v>
       </c>
-      <c r="F78" s="64" t="n">
+      <c r="F78" s="66" t="n">
         <v>720927527</v>
       </c>
-      <c r="G78" s="75" t="s">
+      <c r="G78" s="77" t="s">
         <v>355</v>
       </c>
-      <c r="H78" s="82" t="n">
+      <c r="H78" s="84" t="n">
         <v>42422</v>
       </c>
-      <c r="I78" s="66" t="n">
+      <c r="I78" s="68" t="n">
         <v>100</v>
       </c>
-      <c r="J78" s="63" t="s">
+      <c r="J78" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="K78" s="61" t="s">
+      <c r="K78" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L78" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M78" s="10" t="s">
+      <c r="L78" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M78" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="55" t="s">
+      <c r="A79" s="57" t="s">
         <v>356</v>
       </c>
-      <c r="B79" s="63" t="s">
+      <c r="B79" s="65" t="s">
         <v>357</v>
       </c>
-      <c r="C79" s="74" t="s">
+      <c r="C79" s="76" t="s">
         <v>358</v>
       </c>
-      <c r="D79" s="76" t="s">
+      <c r="D79" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="E79" s="69" t="n">
+      <c r="E79" s="71" t="n">
         <v>742811775</v>
       </c>
-      <c r="F79" s="69" t="n">
+      <c r="F79" s="71" t="n">
         <v>723549099</v>
       </c>
-      <c r="G79" s="65" t="s">
+      <c r="G79" s="67" t="s">
         <v>359</v>
       </c>
-      <c r="H79" s="65"/>
-      <c r="I79" s="65"/>
-      <c r="J79" s="87" t="s">
+      <c r="H79" s="67"/>
+      <c r="I79" s="67"/>
+      <c r="J79" s="89" t="s">
         <v>360</v>
       </c>
-      <c r="K79" s="61" t="s">
+      <c r="K79" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L79" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M79" s="10" t="s">
+      <c r="L79" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M79" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="55" t="s">
+      <c r="A80" s="57" t="s">
         <v>361</v>
       </c>
-      <c r="B80" s="61" t="s">
+      <c r="B80" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="C80" s="74" t="s">
+      <c r="C80" s="76" t="s">
         <v>363</v>
       </c>
-      <c r="D80" s="81" t="s">
+      <c r="D80" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="64" t="n">
+      <c r="E80" s="66" t="n">
         <v>112464252</v>
       </c>
-      <c r="F80" s="64" t="n">
+      <c r="F80" s="66" t="n">
         <v>723081903</v>
       </c>
-      <c r="G80" s="65" t="s">
+      <c r="G80" s="67" t="s">
         <v>364</v>
       </c>
-      <c r="H80" s="82" t="n">
+      <c r="H80" s="84" t="n">
         <v>706</v>
       </c>
-      <c r="I80" s="66" t="n">
+      <c r="I80" s="68" t="n">
         <v>1001</v>
       </c>
-      <c r="J80" s="88" t="s">
+      <c r="J80" s="90" t="s">
         <v>365</v>
       </c>
-      <c r="K80" s="61" t="s">
+      <c r="K80" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L80" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M80" s="10" t="s">
+      <c r="L80" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M80" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="55" t="s">
+      <c r="A81" s="57" t="s">
         <v>366</v>
       </c>
-      <c r="B81" s="63" t="s">
+      <c r="B81" s="65" t="s">
         <v>367</v>
       </c>
-      <c r="C81" s="61" t="s">
+      <c r="C81" s="63" t="s">
         <v>368</v>
       </c>
-      <c r="D81" s="86" t="s">
+      <c r="D81" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="E81" s="69" t="n">
+      <c r="E81" s="71" t="n">
         <v>740279359</v>
       </c>
-      <c r="F81" s="69" t="n">
+      <c r="F81" s="71" t="n">
         <v>722432022</v>
       </c>
-      <c r="G81" s="65" t="s">
+      <c r="G81" s="67" t="s">
         <v>369</v>
       </c>
-      <c r="H81" s="69" t="n">
+      <c r="H81" s="71" t="n">
         <v>58</v>
       </c>
-      <c r="I81" s="77" t="n">
+      <c r="I81" s="79" t="n">
         <v>201</v>
       </c>
-      <c r="J81" s="86" t="s">
+      <c r="J81" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="K81" s="61" t="s">
+      <c r="K81" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L81" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M81" s="10" t="s">
+      <c r="L81" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M81" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="55" t="s">
+      <c r="A82" s="57" t="s">
         <v>370</v>
       </c>
-      <c r="B82" s="63" t="s">
+      <c r="B82" s="65" t="s">
         <v>371</v>
       </c>
-      <c r="C82" s="63" t="s">
+      <c r="C82" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="D82" s="65"/>
-      <c r="E82" s="64" t="n">
+      <c r="D82" s="67"/>
+      <c r="E82" s="66" t="n">
         <v>700882801</v>
       </c>
-      <c r="F82" s="64" t="n">
+      <c r="F82" s="66" t="n">
         <v>722304041</v>
       </c>
-      <c r="G82" s="75" t="s">
+      <c r="G82" s="77" t="s">
         <v>373</v>
       </c>
-      <c r="H82" s="82" t="n">
+      <c r="H82" s="84" t="n">
         <v>276</v>
       </c>
-      <c r="I82" s="66" t="n">
+      <c r="I82" s="68" t="n">
         <v>60100</v>
       </c>
-      <c r="J82" s="83" t="s">
+      <c r="J82" s="85" t="s">
         <v>374</v>
       </c>
-      <c r="K82" s="61" t="s">
+      <c r="K82" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L82" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M82" s="10" t="s">
+      <c r="L82" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M82" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="55" t="s">
+      <c r="A83" s="57" t="s">
         <v>375</v>
       </c>
-      <c r="B83" s="61" t="s">
+      <c r="B83" s="63" t="s">
         <v>376</v>
       </c>
-      <c r="C83" s="61" t="s">
+      <c r="C83" s="63" t="s">
         <v>377</v>
       </c>
-      <c r="D83" s="84" t="s">
+      <c r="D83" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E83" s="64" t="n">
+      <c r="E83" s="66" t="n">
         <v>741202791</v>
       </c>
-      <c r="F83" s="64" t="n">
+      <c r="F83" s="66" t="n">
         <v>720087799</v>
       </c>
-      <c r="G83" s="65" t="s">
+      <c r="G83" s="67" t="s">
         <v>378</v>
       </c>
-      <c r="H83" s="64" t="n">
+      <c r="H83" s="66" t="n">
         <v>30</v>
       </c>
-      <c r="I83" s="66" t="n">
+      <c r="I83" s="68" t="n">
         <v>10101</v>
       </c>
-      <c r="J83" s="89" t="s">
+      <c r="J83" s="91" t="s">
         <v>379</v>
       </c>
-      <c r="K83" s="61" t="s">
+      <c r="K83" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L83" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M83" s="10" t="s">
+      <c r="L83" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M83" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="55" t="s">
+      <c r="A84" s="57" t="s">
         <v>380</v>
       </c>
-      <c r="B84" s="63" t="s">
+      <c r="B84" s="65" t="s">
         <v>381</v>
       </c>
-      <c r="C84" s="74" t="s">
+      <c r="C84" s="76" t="s">
         <v>382</v>
       </c>
-      <c r="D84" s="86" t="s">
+      <c r="D84" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="E84" s="69" t="n">
+      <c r="E84" s="71" t="n">
         <v>111392903</v>
       </c>
-      <c r="F84" s="69" t="n">
+      <c r="F84" s="71" t="n">
         <v>797155137</v>
       </c>
-      <c r="G84" s="72" t="s">
+      <c r="G84" s="74" t="s">
         <v>383</v>
       </c>
-      <c r="H84" s="65"/>
-      <c r="I84" s="80" t="n">
+      <c r="H84" s="67"/>
+      <c r="I84" s="82" t="n">
         <v>80300</v>
       </c>
-      <c r="J84" s="68" t="s">
+      <c r="J84" s="70" t="s">
         <v>384</v>
       </c>
-      <c r="K84" s="61" t="s">
+      <c r="K84" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L84" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M84" s="10" t="s">
+      <c r="L84" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M84" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="55" t="s">
+      <c r="A85" s="57" t="s">
         <v>385</v>
       </c>
-      <c r="B85" s="61" t="s">
+      <c r="B85" s="63" t="s">
         <v>386</v>
       </c>
-      <c r="C85" s="61" t="s">
+      <c r="C85" s="63" t="s">
         <v>387</v>
       </c>
-      <c r="D85" s="79" t="s">
+      <c r="D85" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="E85" s="69" t="n">
+      <c r="E85" s="71" t="n">
         <v>743955629</v>
       </c>
-      <c r="F85" s="69" t="n">
+      <c r="F85" s="71" t="n">
         <v>724326221</v>
       </c>
-      <c r="G85" s="65" t="s">
+      <c r="G85" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="H85" s="90" t="n">
+      <c r="H85" s="92" t="n">
         <v>345</v>
       </c>
-      <c r="I85" s="80" t="n">
+      <c r="I85" s="82" t="n">
         <v>50200</v>
       </c>
-      <c r="J85" s="79" t="s">
+      <c r="J85" s="81" t="s">
         <v>289</v>
       </c>
-      <c r="K85" s="61" t="s">
+      <c r="K85" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L85" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M85" s="10" t="s">
+      <c r="L85" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M85" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="55" t="s">
+      <c r="A86" s="57" t="s">
         <v>389</v>
       </c>
-      <c r="B86" s="63" t="s">
+      <c r="B86" s="65" t="s">
         <v>390</v>
       </c>
-      <c r="C86" s="73" t="s">
+      <c r="C86" s="75" t="s">
         <v>391</v>
       </c>
-      <c r="D86" s="76" t="s">
+      <c r="D86" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="E86" s="69" t="n">
+      <c r="E86" s="71" t="n">
         <v>713588743</v>
       </c>
-      <c r="F86" s="69" t="n">
+      <c r="F86" s="71" t="n">
         <v>722263126</v>
       </c>
-      <c r="G86" s="65" t="s">
+      <c r="G86" s="67" t="s">
         <v>392</v>
       </c>
-      <c r="H86" s="71" t="n">
+      <c r="H86" s="73" t="n">
         <v>62364</v>
       </c>
-      <c r="I86" s="77" t="n">
+      <c r="I86" s="79" t="n">
         <v>200</v>
       </c>
-      <c r="J86" s="78" t="s">
+      <c r="J86" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K86" s="61" t="s">
+      <c r="K86" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L86" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M86" s="10" t="s">
+      <c r="L86" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M86" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="55" t="s">
+      <c r="A87" s="57" t="s">
         <v>393</v>
       </c>
-      <c r="B87" s="63" t="s">
+      <c r="B87" s="65" t="s">
         <v>394</v>
       </c>
-      <c r="C87" s="74" t="s">
+      <c r="C87" s="76" t="s">
         <v>395</v>
       </c>
-      <c r="D87" s="76" t="s">
+      <c r="D87" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="E87" s="69" t="n">
+      <c r="E87" s="71" t="n">
         <v>705568596</v>
       </c>
-      <c r="F87" s="69" t="n">
+      <c r="F87" s="71" t="n">
         <v>721808542</v>
       </c>
-      <c r="G87" s="65" t="s">
+      <c r="G87" s="67" t="s">
         <v>396</v>
       </c>
-      <c r="H87" s="71" t="n">
+      <c r="H87" s="73" t="n">
         <v>13149</v>
       </c>
-      <c r="I87" s="77" t="n">
+      <c r="I87" s="79" t="n">
         <v>100</v>
       </c>
-      <c r="J87" s="78" t="s">
+      <c r="J87" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K87" s="61" t="s">
+      <c r="K87" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L87" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M87" s="10" t="s">
+      <c r="L87" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M87" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="55" t="s">
+      <c r="A88" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="B88" s="63" t="s">
+      <c r="B88" s="65" t="s">
         <v>398</v>
       </c>
-      <c r="C88" s="74" t="s">
+      <c r="C88" s="76" t="s">
         <v>399</v>
       </c>
-      <c r="D88" s="86" t="s">
+      <c r="D88" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="E88" s="69" t="n">
+      <c r="E88" s="71" t="n">
         <v>742549716</v>
       </c>
-      <c r="F88" s="69" t="n">
+      <c r="F88" s="71" t="n">
         <v>724283935</v>
       </c>
-      <c r="G88" s="61" t="s">
+      <c r="G88" s="63" t="s">
         <v>400</v>
       </c>
-      <c r="H88" s="77" t="n">
+      <c r="H88" s="79" t="n">
         <v>107</v>
       </c>
-      <c r="I88" s="80" t="n">
+      <c r="I88" s="82" t="n">
         <v>40405</v>
       </c>
-      <c r="J88" s="61" t="s">
+      <c r="J88" s="63" t="s">
         <v>401</v>
       </c>
-      <c r="K88" s="61" t="s">
+      <c r="K88" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L88" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M88" s="10" t="s">
+      <c r="L88" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M88" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="55" t="s">
+      <c r="A89" s="57" t="s">
         <v>402</v>
       </c>
-      <c r="B89" s="61" t="s">
+      <c r="B89" s="63" t="s">
         <v>403</v>
       </c>
-      <c r="C89" s="61" t="s">
+      <c r="C89" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="D89" s="81" t="s">
+      <c r="D89" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="E89" s="64" t="n">
+      <c r="E89" s="66" t="n">
         <v>710431006</v>
       </c>
-      <c r="F89" s="64" t="n">
+      <c r="F89" s="66" t="n">
         <v>720714658</v>
       </c>
-      <c r="G89" s="65" t="s">
+      <c r="G89" s="67" t="s">
         <v>405</v>
       </c>
-      <c r="H89" s="85" t="n">
+      <c r="H89" s="87" t="n">
         <v>78848</v>
       </c>
-      <c r="I89" s="82" t="n">
+      <c r="I89" s="84" t="n">
         <v>507</v>
       </c>
-      <c r="J89" s="83" t="s">
+      <c r="J89" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="K89" s="61" t="s">
+      <c r="K89" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L89" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M89" s="10" t="s">
+      <c r="L89" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M89" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="55" t="s">
+      <c r="A90" s="57" t="s">
         <v>406</v>
       </c>
-      <c r="B90" s="63" t="s">
+      <c r="B90" s="65" t="s">
         <v>407</v>
       </c>
-      <c r="C90" s="61" t="s">
+      <c r="C90" s="63" t="s">
         <v>408</v>
       </c>
-      <c r="D90" s="86" t="s">
+      <c r="D90" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="E90" s="69" t="n">
+      <c r="E90" s="71" t="n">
         <v>722702674</v>
       </c>
-      <c r="F90" s="69" t="n">
+      <c r="F90" s="71" t="n">
         <v>721425158</v>
       </c>
-      <c r="G90" s="65" t="s">
+      <c r="G90" s="67" t="s">
         <v>409</v>
       </c>
-      <c r="H90" s="71" t="n">
+      <c r="H90" s="73" t="n">
         <v>42422</v>
       </c>
-      <c r="I90" s="77" t="n">
+      <c r="I90" s="79" t="n">
         <v>100</v>
       </c>
-      <c r="J90" s="78" t="s">
+      <c r="J90" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K90" s="61" t="s">
+      <c r="K90" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L90" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M90" s="10" t="s">
+      <c r="L90" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M90" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="55" t="s">
+      <c r="A91" s="57" t="s">
         <v>410</v>
       </c>
-      <c r="B91" s="63" t="s">
+      <c r="B91" s="65" t="s">
         <v>411</v>
       </c>
-      <c r="C91" s="74" t="s">
+      <c r="C91" s="76" t="s">
         <v>412</v>
       </c>
-      <c r="D91" s="86" t="s">
+      <c r="D91" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="E91" s="69" t="n">
+      <c r="E91" s="71" t="n">
         <v>799210775</v>
       </c>
-      <c r="F91" s="69" t="n">
+      <c r="F91" s="71" t="n">
         <v>722702674</v>
       </c>
-      <c r="G91" s="65" t="s">
+      <c r="G91" s="67" t="s">
         <v>413</v>
       </c>
-      <c r="H91" s="71" t="n">
+      <c r="H91" s="73" t="n">
         <v>42422</v>
       </c>
-      <c r="I91" s="77" t="n">
+      <c r="I91" s="79" t="n">
         <v>100</v>
       </c>
-      <c r="J91" s="78" t="s">
+      <c r="J91" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K91" s="61" t="s">
+      <c r="K91" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L91" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M91" s="10" t="s">
+      <c r="L91" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M91" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="55" t="s">
+      <c r="A92" s="57" t="s">
         <v>414</v>
       </c>
-      <c r="B92" s="61" t="s">
+      <c r="B92" s="63" t="s">
         <v>415</v>
       </c>
-      <c r="C92" s="63" t="s">
+      <c r="C92" s="65" t="s">
         <v>416</v>
       </c>
-      <c r="D92" s="81" t="s">
+      <c r="D92" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="E92" s="64" t="n">
+      <c r="E92" s="66" t="n">
         <v>727617323</v>
       </c>
-      <c r="F92" s="64" t="n">
+      <c r="F92" s="66" t="n">
         <v>714447104</v>
       </c>
-      <c r="G92" s="65" t="s">
+      <c r="G92" s="67" t="s">
         <v>417</v>
       </c>
-      <c r="H92" s="74" t="s">
+      <c r="H92" s="76" t="s">
         <v>418</v>
       </c>
-      <c r="I92" s="75"/>
-      <c r="J92" s="83" t="s">
+      <c r="I92" s="77"/>
+      <c r="J92" s="85" t="s">
         <v>419</v>
       </c>
-      <c r="K92" s="61" t="s">
+      <c r="K92" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L92" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M92" s="10" t="s">
+      <c r="L92" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M92" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="55" t="s">
+      <c r="A93" s="57" t="s">
         <v>420</v>
       </c>
-      <c r="B93" s="63" t="s">
+      <c r="B93" s="65" t="s">
         <v>421</v>
       </c>
-      <c r="C93" s="73" t="s">
+      <c r="C93" s="75" t="s">
         <v>422</v>
       </c>
-      <c r="D93" s="76" t="s">
+      <c r="D93" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="E93" s="69" t="n">
+      <c r="E93" s="71" t="n">
         <v>768256727</v>
       </c>
-      <c r="F93" s="69" t="n">
+      <c r="F93" s="71" t="n">
         <v>720987631</v>
       </c>
-      <c r="G93" s="72" t="s">
+      <c r="G93" s="74" t="s">
         <v>423</v>
       </c>
-      <c r="H93" s="71" t="n">
+      <c r="H93" s="73" t="n">
         <v>73864</v>
       </c>
-      <c r="I93" s="77" t="n">
+      <c r="I93" s="79" t="n">
         <v>200</v>
       </c>
-      <c r="J93" s="78" t="s">
+      <c r="J93" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K93" s="61" t="s">
+      <c r="K93" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L93" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M93" s="10" t="s">
+      <c r="L93" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M93" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="55" t="s">
+      <c r="A94" s="57" t="s">
         <v>424</v>
       </c>
-      <c r="B94" s="73" t="s">
+      <c r="B94" s="75" t="s">
         <v>425</v>
       </c>
-      <c r="C94" s="73" t="s">
+      <c r="C94" s="75" t="s">
         <v>426</v>
       </c>
-      <c r="D94" s="86" t="s">
+      <c r="D94" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="E94" s="69" t="n">
+      <c r="E94" s="71" t="n">
         <v>702612368</v>
       </c>
-      <c r="F94" s="69" t="n">
+      <c r="F94" s="71" t="n">
         <v>722709615</v>
       </c>
-      <c r="G94" s="65" t="s">
+      <c r="G94" s="67" t="s">
         <v>427</v>
       </c>
-      <c r="H94" s="65"/>
-      <c r="I94" s="65"/>
-      <c r="J94" s="87" t="s">
+      <c r="H94" s="67"/>
+      <c r="I94" s="67"/>
+      <c r="J94" s="89" t="s">
         <v>428</v>
       </c>
-      <c r="K94" s="61" t="s">
+      <c r="K94" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L94" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M94" s="10" t="s">
+      <c r="L94" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M94" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="55" t="s">
+      <c r="A95" s="57" t="s">
         <v>429</v>
       </c>
-      <c r="B95" s="61" t="s">
+      <c r="B95" s="63" t="s">
         <v>430</v>
       </c>
-      <c r="C95" s="61" t="s">
+      <c r="C95" s="63" t="s">
         <v>431</v>
       </c>
-      <c r="D95" s="79" t="s">
+      <c r="D95" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="E95" s="69" t="n">
+      <c r="E95" s="71" t="n">
         <v>791428857</v>
       </c>
-      <c r="F95" s="69" t="n">
+      <c r="F95" s="71" t="n">
         <v>72242954</v>
       </c>
-      <c r="G95" s="65" t="s">
+      <c r="G95" s="67" t="s">
         <v>432</v>
       </c>
-      <c r="H95" s="65"/>
-      <c r="I95" s="80" t="n">
+      <c r="H95" s="67"/>
+      <c r="I95" s="82" t="n">
         <v>100</v>
       </c>
-      <c r="J95" s="79" t="s">
+      <c r="J95" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="K95" s="61" t="s">
+      <c r="K95" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L95" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M95" s="10" t="s">
+      <c r="L95" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M95" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="55" t="s">
+      <c r="A96" s="57" t="s">
         <v>433</v>
       </c>
-      <c r="B96" s="63" t="s">
+      <c r="B96" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="C96" s="62" t="s">
+      <c r="C96" s="64" t="s">
         <v>435</v>
       </c>
-      <c r="D96" s="88" t="s">
+      <c r="D96" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="E96" s="64" t="n">
+      <c r="E96" s="66" t="n">
         <v>741412227</v>
       </c>
-      <c r="F96" s="64" t="n">
+      <c r="F96" s="66" t="n">
         <v>723909482</v>
       </c>
-      <c r="G96" s="72" t="s">
+      <c r="G96" s="74" t="s">
         <v>436</v>
       </c>
-      <c r="H96" s="64" t="n">
+      <c r="H96" s="66" t="n">
         <v>38</v>
       </c>
-      <c r="I96" s="64" t="n">
+      <c r="I96" s="66" t="n">
         <v>10104</v>
       </c>
-      <c r="J96" s="89" t="s">
+      <c r="J96" s="91" t="s">
         <v>437</v>
       </c>
-      <c r="K96" s="61" t="s">
+      <c r="K96" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L96" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M96" s="10" t="s">
+      <c r="L96" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M96" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="55" t="s">
+      <c r="A97" s="57" t="s">
         <v>438</v>
       </c>
-      <c r="B97" s="61" t="s">
+      <c r="B97" s="63" t="s">
         <v>439</v>
       </c>
-      <c r="C97" s="73" t="s">
+      <c r="C97" s="75" t="s">
         <v>440</v>
       </c>
-      <c r="D97" s="87" t="s">
+      <c r="D97" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="E97" s="69" t="n">
+      <c r="E97" s="71" t="n">
         <v>794414049</v>
       </c>
-      <c r="F97" s="69" t="n">
+      <c r="F97" s="71" t="n">
         <v>724583854</v>
       </c>
-      <c r="G97" s="65" t="s">
+      <c r="G97" s="67" t="s">
         <v>441</v>
       </c>
-      <c r="H97" s="69" t="n">
+      <c r="H97" s="71" t="n">
         <v>49093</v>
       </c>
-      <c r="I97" s="69" t="n">
+      <c r="I97" s="71" t="n">
         <v>100</v>
       </c>
-      <c r="J97" s="86" t="s">
+      <c r="J97" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="K97" s="61" t="s">
+      <c r="K97" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="L97" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M97" s="10" t="s">
+      <c r="L97" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M97" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L98" s="67"/>
-      <c r="M98" s="10" t="s">
+      <c r="L98" s="69"/>
+      <c r="M98" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="55" t="s">
+      <c r="A99" s="57" t="s">
         <v>442</v>
       </c>
-      <c r="B99" s="63" t="s">
+      <c r="B99" s="65" t="s">
         <v>443</v>
       </c>
-      <c r="C99" s="61" t="s">
+      <c r="C99" s="63" t="s">
         <v>444</v>
       </c>
-      <c r="D99" s="68" t="s">
+      <c r="D99" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E99" s="69" t="n">
+      <c r="E99" s="71" t="n">
         <v>795325646</v>
       </c>
-      <c r="F99" s="69" t="n">
+      <c r="F99" s="71" t="n">
         <v>714808444</v>
       </c>
-      <c r="G99" s="65" t="s">
+      <c r="G99" s="67" t="s">
         <v>445</v>
       </c>
-      <c r="H99" s="77" t="n">
+      <c r="H99" s="79" t="n">
         <v>1001</v>
       </c>
-      <c r="I99" s="69" t="n">
+      <c r="I99" s="71" t="n">
         <v>50102</v>
       </c>
-      <c r="J99" s="68" t="s">
+      <c r="J99" s="70" t="s">
         <v>446</v>
       </c>
-      <c r="K99" s="74" t="s">
+      <c r="K99" s="76" t="s">
         <v>447</v>
       </c>
-      <c r="L99" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M99" s="10" t="s">
+      <c r="L99" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M99" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="55" t="s">
+      <c r="A100" s="57" t="s">
         <v>448</v>
       </c>
-      <c r="B100" s="63" t="s">
+      <c r="B100" s="65" t="s">
         <v>449</v>
       </c>
-      <c r="C100" s="68" t="s">
+      <c r="C100" s="70" t="s">
         <v>450</v>
       </c>
-      <c r="D100" s="68" t="s">
+      <c r="D100" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="69" t="n">
+      <c r="E100" s="71" t="n">
         <v>714267623</v>
       </c>
-      <c r="F100" s="69" t="n">
+      <c r="F100" s="71" t="n">
         <v>728861313</v>
       </c>
-      <c r="G100" s="65"/>
-      <c r="H100" s="67" t="s">
+      <c r="G100" s="67"/>
+      <c r="H100" s="69" t="s">
         <v>451</v>
       </c>
-      <c r="I100" s="69" t="n">
+      <c r="I100" s="71" t="n">
         <v>55</v>
       </c>
-      <c r="J100" s="68" t="s">
+      <c r="J100" s="70" t="s">
         <v>452</v>
       </c>
-      <c r="K100" s="74" t="s">
+      <c r="K100" s="76" t="s">
         <v>447</v>
       </c>
-      <c r="L100" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M100" s="10" t="s">
+      <c r="L100" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M100" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="55" t="s">
+      <c r="A101" s="57" t="s">
         <v>453</v>
       </c>
-      <c r="B101" s="63" t="s">
+      <c r="B101" s="65" t="s">
         <v>454</v>
       </c>
-      <c r="C101" s="74" t="s">
+      <c r="C101" s="76" t="s">
         <v>455</v>
       </c>
-      <c r="D101" s="68" t="s">
+      <c r="D101" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="E101" s="69" t="n">
+      <c r="E101" s="71" t="n">
         <v>745043111</v>
       </c>
-      <c r="F101" s="69" t="n">
+      <c r="F101" s="71" t="n">
         <v>757541812</v>
       </c>
-      <c r="G101" s="75" t="s">
+      <c r="G101" s="77" t="s">
         <v>456</v>
       </c>
-      <c r="H101" s="77" t="n">
+      <c r="H101" s="79" t="n">
         <v>299</v>
       </c>
-      <c r="I101" s="69" t="n">
+      <c r="I101" s="71" t="n">
         <v>209</v>
       </c>
-      <c r="J101" s="68" t="s">
+      <c r="J101" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="K101" s="74" t="s">
+      <c r="K101" s="76" t="s">
         <v>447</v>
       </c>
-      <c r="L101" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M101" s="10" t="s">
+      <c r="L101" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M101" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="55" t="s">
+      <c r="A102" s="57" t="s">
         <v>457</v>
       </c>
-      <c r="B102" s="63" t="s">
+      <c r="B102" s="65" t="s">
         <v>458</v>
       </c>
-      <c r="C102" s="62" t="s">
+      <c r="C102" s="64" t="s">
         <v>459</v>
       </c>
-      <c r="D102" s="68" t="s">
+      <c r="D102" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E102" s="69" t="n">
+      <c r="E102" s="71" t="n">
         <v>741188170</v>
       </c>
-      <c r="F102" s="69" t="n">
+      <c r="F102" s="71" t="n">
         <v>724491011</v>
       </c>
-      <c r="G102" s="72" t="s">
+      <c r="G102" s="74" t="s">
         <v>460</v>
       </c>
-      <c r="H102" s="80" t="n">
+      <c r="H102" s="82" t="n">
         <v>48193</v>
       </c>
-      <c r="I102" s="69" t="n">
+      <c r="I102" s="71" t="n">
         <v>100</v>
       </c>
-      <c r="J102" s="68" t="s">
+      <c r="J102" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="K102" s="74" t="s">
+      <c r="K102" s="76" t="s">
         <v>447</v>
       </c>
-      <c r="L102" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M102" s="10" t="s">
+      <c r="L102" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M102" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="55" t="s">
+      <c r="A103" s="57" t="s">
         <v>461</v>
       </c>
-      <c r="B103" s="91" t="s">
+      <c r="B103" s="93" t="s">
         <v>462</v>
       </c>
-      <c r="C103" s="92" t="s">
+      <c r="C103" s="94" t="s">
         <v>463</v>
       </c>
-      <c r="D103" s="93" t="s">
+      <c r="D103" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="E103" s="94" t="n">
+      <c r="E103" s="96" t="n">
         <v>719163026</v>
       </c>
-      <c r="F103" s="95" t="n">
+      <c r="F103" s="97" t="n">
         <v>725907301</v>
       </c>
-      <c r="G103" s="65" t="s">
+      <c r="G103" s="67" t="s">
         <v>464</v>
       </c>
-      <c r="H103" s="96" t="n">
+      <c r="H103" s="98" t="n">
         <v>79540</v>
       </c>
-      <c r="I103" s="94" t="n">
+      <c r="I103" s="96" t="n">
         <v>200</v>
       </c>
-      <c r="J103" s="93" t="s">
+      <c r="J103" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="K103" s="74" t="s">
+      <c r="K103" s="76" t="s">
         <v>447</v>
       </c>
-      <c r="L103" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M103" s="10" t="s">
+      <c r="L103" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M103" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="55" t="s">
+      <c r="A104" s="57" t="s">
         <v>465</v>
       </c>
-      <c r="B104" s="91" t="s">
+      <c r="B104" s="93" t="s">
         <v>466</v>
       </c>
-      <c r="C104" s="97" t="s">
+      <c r="C104" s="99" t="s">
         <v>467</v>
       </c>
-      <c r="D104" s="93" t="s">
+      <c r="D104" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="E104" s="94" t="n">
+      <c r="E104" s="96" t="n">
         <v>701212356</v>
       </c>
-      <c r="F104" s="95" t="n">
+      <c r="F104" s="97" t="n">
         <v>743531116</v>
       </c>
-      <c r="G104" s="65" t="s">
+      <c r="G104" s="67" t="s">
         <v>468</v>
       </c>
-      <c r="H104" s="96" t="n">
+      <c r="H104" s="98" t="n">
         <v>861</v>
       </c>
-      <c r="I104" s="94" t="n">
+      <c r="I104" s="96" t="n">
         <v>20500</v>
       </c>
-      <c r="J104" s="93" t="s">
+      <c r="J104" s="95" t="s">
         <v>469</v>
       </c>
-      <c r="K104" s="74" t="s">
+      <c r="K104" s="76" t="s">
         <v>447</v>
       </c>
-      <c r="L104" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M104" s="10" t="s">
+      <c r="L104" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M104" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="55" t="s">
+      <c r="A105" s="57" t="s">
         <v>470</v>
       </c>
-      <c r="B105" s="91" t="s">
+      <c r="B105" s="93" t="s">
         <v>471</v>
       </c>
-      <c r="C105" s="93" t="s">
+      <c r="C105" s="95" t="s">
         <v>472</v>
       </c>
-      <c r="D105" s="93" t="s">
+      <c r="D105" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="E105" s="94" t="n">
+      <c r="E105" s="96" t="n">
         <v>713979868</v>
       </c>
-      <c r="F105" s="95" t="n">
+      <c r="F105" s="97" t="n">
         <v>715446532</v>
       </c>
-      <c r="G105" s="65" t="s">
+      <c r="G105" s="67" t="s">
         <v>473</v>
       </c>
-      <c r="H105" s="65"/>
-      <c r="I105" s="65"/>
-      <c r="J105" s="93" t="s">
+      <c r="H105" s="67"/>
+      <c r="I105" s="67"/>
+      <c r="J105" s="95" t="s">
         <v>474</v>
       </c>
-      <c r="K105" s="74" t="s">
+      <c r="K105" s="76" t="s">
         <v>447</v>
       </c>
-      <c r="L105" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M105" s="10" t="s">
+      <c r="L105" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M105" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="55" t="s">
+      <c r="A106" s="57" t="s">
         <v>475</v>
       </c>
-      <c r="B106" s="63" t="s">
+      <c r="B106" s="65" t="s">
         <v>476</v>
       </c>
-      <c r="C106" s="62" t="s">
+      <c r="C106" s="64" t="s">
         <v>477</v>
       </c>
-      <c r="D106" s="68" t="s">
+      <c r="D106" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="E106" s="69" t="n">
+      <c r="E106" s="71" t="n">
         <v>746153774</v>
       </c>
-      <c r="F106" s="69" t="n">
+      <c r="F106" s="71" t="n">
         <v>722327101</v>
       </c>
-      <c r="G106" s="75" t="s">
+      <c r="G106" s="77" t="s">
         <v>478</v>
       </c>
-      <c r="H106" s="77" t="n">
+      <c r="H106" s="79" t="n">
         <v>2812</v>
       </c>
-      <c r="I106" s="69" t="n">
+      <c r="I106" s="71" t="n">
         <v>100</v>
       </c>
-      <c r="J106" s="68" t="s">
+      <c r="J106" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="K106" s="74" t="s">
+      <c r="K106" s="76" t="s">
         <v>447</v>
       </c>
-      <c r="L106" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M106" s="10" t="s">
+      <c r="L106" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M106" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="55" t="s">
+      <c r="A107" s="57" t="s">
         <v>479</v>
       </c>
-      <c r="B107" s="91" t="s">
+      <c r="B107" s="93" t="s">
         <v>480</v>
       </c>
-      <c r="C107" s="92" t="s">
+      <c r="C107" s="94" t="s">
         <v>481</v>
       </c>
-      <c r="D107" s="98" t="s">
+      <c r="D107" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="E107" s="94" t="n">
+      <c r="E107" s="96" t="n">
         <v>740637395</v>
       </c>
-      <c r="F107" s="95" t="n">
+      <c r="F107" s="97" t="n">
         <v>711757097</v>
       </c>
-      <c r="G107" s="65" t="s">
+      <c r="G107" s="67" t="s">
         <v>482</v>
       </c>
-      <c r="H107" s="95" t="n">
+      <c r="H107" s="97" t="n">
         <v>5</v>
       </c>
-      <c r="I107" s="99" t="n">
+      <c r="I107" s="101" t="n">
         <v>90133</v>
       </c>
-      <c r="J107" s="93" t="s">
+      <c r="J107" s="95" t="s">
         <v>483</v>
       </c>
-      <c r="K107" s="74" t="s">
+      <c r="K107" s="76" t="s">
         <v>447</v>
       </c>
-      <c r="L107" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M107" s="10" t="s">
+      <c r="L107" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M107" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="55" t="s">
+      <c r="A108" s="57" t="s">
         <v>484</v>
       </c>
-      <c r="B108" s="63" t="s">
+      <c r="B108" s="65" t="s">
         <v>485</v>
       </c>
-      <c r="C108" s="73" t="s">
+      <c r="C108" s="75" t="s">
         <v>486</v>
       </c>
-      <c r="D108" s="87" t="s">
+      <c r="D108" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="E108" s="69" t="n">
+      <c r="E108" s="71" t="n">
         <v>712197803</v>
       </c>
-      <c r="F108" s="69" t="n">
+      <c r="F108" s="71" t="n">
         <v>712278757</v>
       </c>
-      <c r="G108" s="75" t="s">
+      <c r="G108" s="77" t="s">
         <v>487</v>
       </c>
-      <c r="H108" s="69" t="n">
+      <c r="H108" s="71" t="n">
         <v>2536</v>
       </c>
-      <c r="I108" s="71" t="n">
+      <c r="I108" s="73" t="n">
         <v>60200</v>
       </c>
-      <c r="J108" s="68" t="s">
+      <c r="J108" s="70" t="s">
         <v>488</v>
       </c>
-      <c r="K108" s="74" t="s">
+      <c r="K108" s="76" t="s">
         <v>447</v>
       </c>
-      <c r="L108" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M108" s="10" t="s">
+      <c r="L108" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M108" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="55" t="s">
+      <c r="A109" s="57" t="s">
         <v>489</v>
       </c>
-      <c r="B109" s="63" t="s">
+      <c r="B109" s="65" t="s">
         <v>490</v>
       </c>
-      <c r="C109" s="63" t="s">
+      <c r="C109" s="65" t="s">
         <v>491</v>
       </c>
-      <c r="D109" s="87" t="s">
+      <c r="D109" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="E109" s="69" t="n">
+      <c r="E109" s="71" t="n">
         <v>769134293</v>
       </c>
-      <c r="F109" s="69" t="n">
+      <c r="F109" s="71" t="n">
         <v>724239242</v>
       </c>
-      <c r="G109" s="75" t="s">
+      <c r="G109" s="77" t="s">
         <v>492</v>
       </c>
-      <c r="H109" s="69" t="n">
+      <c r="H109" s="71" t="n">
         <v>1761</v>
       </c>
-      <c r="I109" s="71" t="n">
+      <c r="I109" s="73" t="n">
         <v>50101</v>
       </c>
-      <c r="J109" s="68" t="s">
+      <c r="J109" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="K109" s="74" t="s">
+      <c r="K109" s="76" t="s">
         <v>447</v>
       </c>
-      <c r="L109" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M109" s="10" t="s">
+      <c r="L109" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M109" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L110" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M110" s="10" t="s">
+      <c r="L110" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M110" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="55" t="s">
+      <c r="A111" s="57" t="s">
         <v>493</v>
       </c>
-      <c r="B111" s="100" t="s">
+      <c r="B111" s="102" t="s">
         <v>494</v>
       </c>
-      <c r="C111" s="100" t="s">
+      <c r="C111" s="102" t="s">
         <v>495</v>
       </c>
-      <c r="D111" s="100" t="s">
+      <c r="D111" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="E111" s="100" t="n">
+      <c r="E111" s="102" t="n">
         <v>710154637</v>
       </c>
-      <c r="F111" s="100" t="n">
+      <c r="F111" s="102" t="n">
         <v>722173606</v>
       </c>
-      <c r="G111" s="100" t="s">
+      <c r="G111" s="102" t="s">
         <v>496</v>
       </c>
-      <c r="H111" s="100" t="n">
+      <c r="H111" s="102" t="n">
         <v>84</v>
       </c>
-      <c r="I111" s="100" t="n">
+      <c r="I111" s="102" t="n">
         <v>20400</v>
       </c>
-      <c r="J111" s="100" t="s">
+      <c r="J111" s="102" t="s">
         <v>497</v>
       </c>
-      <c r="K111" s="100" t="s">
+      <c r="K111" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="L111" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M111" s="10" t="s">
+      <c r="L111" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M111" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="55" t="s">
+      <c r="A112" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="B112" s="100" t="s">
+      <c r="B112" s="102" t="s">
         <v>500</v>
       </c>
-      <c r="C112" s="100" t="s">
+      <c r="C112" s="102" t="s">
         <v>501</v>
       </c>
-      <c r="D112" s="100" t="s">
+      <c r="D112" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="E112" s="100" t="n">
+      <c r="E112" s="102" t="n">
         <v>707083129</v>
       </c>
-      <c r="F112" s="100" t="n">
+      <c r="F112" s="102" t="n">
         <v>723658900</v>
       </c>
-      <c r="G112" s="100" t="s">
+      <c r="G112" s="102" t="s">
         <v>502</v>
       </c>
-      <c r="H112" s="100" t="n">
+      <c r="H112" s="102" t="n">
         <v>1078</v>
       </c>
-      <c r="I112" s="100" t="n">
+      <c r="I112" s="102" t="n">
         <v>80108</v>
       </c>
-      <c r="J112" s="100" t="s">
+      <c r="J112" s="102" t="s">
         <v>503</v>
       </c>
-      <c r="K112" s="100" t="s">
+      <c r="K112" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="L112" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M112" s="10" t="s">
+      <c r="L112" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M112" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="55" t="s">
+      <c r="A113" s="57" t="s">
         <v>504</v>
       </c>
-      <c r="B113" s="100" t="s">
+      <c r="B113" s="102" t="s">
         <v>505</v>
       </c>
-      <c r="C113" s="100" t="s">
+      <c r="C113" s="102" t="s">
         <v>506</v>
       </c>
-      <c r="D113" s="100" t="s">
+      <c r="D113" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="E113" s="100" t="n">
+      <c r="E113" s="102" t="n">
         <v>757356544</v>
       </c>
-      <c r="F113" s="100" t="n">
+      <c r="F113" s="102" t="n">
         <v>728142197</v>
       </c>
-      <c r="G113" s="100" t="s">
+      <c r="G113" s="102" t="s">
         <v>507</v>
       </c>
-      <c r="H113" s="100" t="n">
+      <c r="H113" s="102" t="n">
         <v>600</v>
       </c>
-      <c r="I113" s="100" t="n">
+      <c r="I113" s="102" t="n">
         <v>100</v>
       </c>
-      <c r="J113" s="100" t="s">
+      <c r="J113" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="K113" s="100" t="s">
+      <c r="K113" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="L113" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M113" s="10" t="s">
+      <c r="L113" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M113" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="55" t="s">
+      <c r="A114" s="57" t="s">
         <v>508</v>
       </c>
-      <c r="B114" s="100" t="s">
+      <c r="B114" s="102" t="s">
         <v>509</v>
       </c>
-      <c r="C114" s="100" t="s">
+      <c r="C114" s="102" t="s">
         <v>510</v>
       </c>
-      <c r="D114" s="100" t="s">
+      <c r="D114" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="E114" s="100" t="n">
+      <c r="E114" s="102" t="n">
         <v>717888817</v>
       </c>
-      <c r="F114" s="100" t="n">
+      <c r="F114" s="102" t="n">
         <v>715642289</v>
       </c>
-      <c r="G114" s="100" t="s">
+      <c r="G114" s="102" t="s">
         <v>511</v>
       </c>
-      <c r="H114" s="100" t="n">
+      <c r="H114" s="102" t="n">
         <v>2810</v>
       </c>
-      <c r="I114" s="100" t="n">
+      <c r="I114" s="102" t="n">
         <v>200</v>
       </c>
-      <c r="J114" s="100" t="s">
+      <c r="J114" s="102" t="s">
         <v>151</v>
       </c>
-      <c r="K114" s="100" t="s">
+      <c r="K114" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="L114" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M114" s="10" t="s">
+      <c r="L114" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M114" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="55" t="s">
+      <c r="A115" s="57" t="s">
         <v>512</v>
       </c>
-      <c r="B115" s="100" t="s">
+      <c r="B115" s="102" t="s">
         <v>513</v>
       </c>
-      <c r="C115" s="100" t="s">
+      <c r="C115" s="102" t="s">
         <v>514</v>
       </c>
-      <c r="D115" s="100" t="s">
+      <c r="D115" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="E115" s="100" t="n">
+      <c r="E115" s="102" t="n">
         <v>718442836</v>
       </c>
-      <c r="F115" s="100" t="n">
+      <c r="F115" s="102" t="n">
         <v>721569078</v>
       </c>
-      <c r="G115" s="100" t="s">
+      <c r="G115" s="102" t="s">
         <v>515</v>
       </c>
-      <c r="H115" s="100" t="n">
+      <c r="H115" s="102" t="n">
         <v>694</v>
       </c>
-      <c r="I115" s="100" t="n">
+      <c r="I115" s="102" t="n">
         <v>30701</v>
       </c>
-      <c r="J115" s="100" t="s">
+      <c r="J115" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="K115" s="100" t="s">
+      <c r="K115" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="L115" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M115" s="10" t="s">
+      <c r="L115" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M115" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="55" t="s">
+      <c r="A116" s="57" t="s">
         <v>516</v>
       </c>
-      <c r="B116" s="100" t="s">
+      <c r="B116" s="102" t="s">
         <v>517</v>
       </c>
-      <c r="C116" s="100" t="s">
+      <c r="C116" s="102" t="s">
         <v>518</v>
       </c>
-      <c r="D116" s="100" t="s">
+      <c r="D116" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="E116" s="100" t="n">
+      <c r="E116" s="102" t="n">
         <v>106192047</v>
       </c>
-      <c r="F116" s="100" t="n">
+      <c r="F116" s="102" t="n">
         <v>112087768</v>
       </c>
-      <c r="G116" s="100" t="s">
+      <c r="G116" s="102" t="s">
         <v>519</v>
       </c>
-      <c r="H116" s="100" t="n">
+      <c r="H116" s="102" t="n">
         <v>446601</v>
       </c>
-      <c r="I116" s="100"/>
-      <c r="J116" s="100" t="s">
+      <c r="I116" s="102"/>
+      <c r="J116" s="102" t="s">
         <v>520</v>
       </c>
-      <c r="K116" s="100" t="s">
+      <c r="K116" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="L116" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M116" s="10" t="s">
+      <c r="L116" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M116" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="55" t="s">
+      <c r="A117" s="57" t="s">
         <v>521</v>
       </c>
-      <c r="B117" s="100" t="s">
+      <c r="B117" s="102" t="s">
         <v>522</v>
       </c>
-      <c r="C117" s="100" t="s">
+      <c r="C117" s="102" t="s">
         <v>523</v>
       </c>
-      <c r="D117" s="100" t="s">
+      <c r="D117" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="E117" s="100" t="n">
+      <c r="E117" s="102" t="n">
         <v>799404108</v>
       </c>
-      <c r="F117" s="100" t="n">
+      <c r="F117" s="102" t="n">
         <v>728325073</v>
       </c>
-      <c r="G117" s="100" t="s">
+      <c r="G117" s="102" t="s">
         <v>524</v>
       </c>
-      <c r="H117" s="100" t="n">
+      <c r="H117" s="102" t="n">
         <v>653</v>
       </c>
-      <c r="I117" s="100" t="n">
+      <c r="I117" s="102" t="n">
         <v>40600</v>
       </c>
-      <c r="J117" s="100" t="s">
+      <c r="J117" s="102" t="s">
         <v>525</v>
       </c>
-      <c r="K117" s="100" t="s">
+      <c r="K117" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="L117" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M117" s="10" t="s">
+      <c r="L117" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M117" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="55" t="s">
+      <c r="A118" s="57" t="s">
         <v>526</v>
       </c>
-      <c r="B118" s="100" t="s">
+      <c r="B118" s="102" t="s">
         <v>527</v>
       </c>
-      <c r="C118" s="100" t="s">
+      <c r="C118" s="102" t="s">
         <v>528</v>
       </c>
-      <c r="D118" s="100" t="s">
+      <c r="D118" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="E118" s="100" t="n">
+      <c r="E118" s="102" t="n">
         <v>703899816</v>
       </c>
-      <c r="F118" s="100" t="n">
+      <c r="F118" s="102" t="n">
         <v>720417670</v>
       </c>
-      <c r="G118" s="100" t="s">
+      <c r="G118" s="102" t="s">
         <v>529</v>
       </c>
-      <c r="H118" s="100" t="n">
+      <c r="H118" s="102" t="n">
         <v>52</v>
       </c>
-      <c r="I118" s="100"/>
-      <c r="J118" s="100" t="s">
+      <c r="I118" s="102"/>
+      <c r="J118" s="102" t="s">
         <v>530</v>
       </c>
-      <c r="K118" s="100" t="s">
+      <c r="K118" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="L118" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M118" s="10" t="s">
+      <c r="L118" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M118" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="55" t="s">
+      <c r="A119" s="57" t="s">
         <v>531</v>
       </c>
-      <c r="B119" s="100" t="s">
+      <c r="B119" s="102" t="s">
         <v>532</v>
       </c>
-      <c r="C119" s="100" t="s">
+      <c r="C119" s="102" t="s">
         <v>533</v>
       </c>
-      <c r="D119" s="100" t="s">
+      <c r="D119" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="E119" s="100" t="n">
+      <c r="E119" s="102" t="n">
         <v>712545354</v>
       </c>
-      <c r="F119" s="100" t="n">
+      <c r="F119" s="102" t="n">
         <v>723015376</v>
       </c>
-      <c r="G119" s="100" t="s">
+      <c r="G119" s="102" t="s">
         <v>534</v>
       </c>
-      <c r="H119" s="100" t="n">
+      <c r="H119" s="102" t="n">
         <v>87</v>
       </c>
-      <c r="I119" s="100"/>
-      <c r="J119" s="100" t="s">
+      <c r="I119" s="102"/>
+      <c r="J119" s="102" t="s">
         <v>535</v>
       </c>
-      <c r="K119" s="100" t="s">
+      <c r="K119" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="L119" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M119" s="10" t="s">
+      <c r="L119" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M119" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="55" t="s">
+      <c r="A120" s="57" t="s">
         <v>536</v>
       </c>
-      <c r="B120" s="100" t="s">
+      <c r="B120" s="102" t="s">
         <v>537</v>
       </c>
-      <c r="C120" s="100" t="s">
+      <c r="C120" s="102" t="s">
         <v>538</v>
       </c>
-      <c r="D120" s="100" t="s">
+      <c r="D120" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="E120" s="100" t="n">
+      <c r="E120" s="102" t="n">
         <v>719899544</v>
       </c>
-      <c r="F120" s="100" t="n">
+      <c r="F120" s="102" t="n">
         <v>726633712</v>
       </c>
-      <c r="G120" s="100" t="s">
+      <c r="G120" s="102" t="s">
         <v>539</v>
       </c>
-      <c r="H120" s="100"/>
-      <c r="I120" s="100"/>
-      <c r="J120" s="100" t="s">
+      <c r="H120" s="102"/>
+      <c r="I120" s="102"/>
+      <c r="J120" s="102" t="s">
         <v>540</v>
       </c>
-      <c r="K120" s="100" t="s">
+      <c r="K120" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="L120" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M120" s="10" t="s">
+      <c r="L120" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M120" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="55" t="s">
+      <c r="A121" s="57" t="s">
         <v>541</v>
       </c>
-      <c r="B121" s="100" t="s">
+      <c r="B121" s="102" t="s">
         <v>542</v>
       </c>
-      <c r="C121" s="100" t="s">
+      <c r="C121" s="102" t="s">
         <v>543</v>
       </c>
-      <c r="D121" s="100" t="s">
+      <c r="D121" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="E121" s="100" t="n">
+      <c r="E121" s="102" t="n">
         <v>115837692</v>
       </c>
-      <c r="F121" s="100" t="n">
+      <c r="F121" s="102" t="n">
         <v>710474692</v>
       </c>
-      <c r="G121" s="100" t="s">
+      <c r="G121" s="102" t="s">
         <v>544</v>
       </c>
-      <c r="H121" s="100" t="n">
+      <c r="H121" s="102" t="n">
         <v>2344</v>
       </c>
-      <c r="I121" s="100" t="n">
+      <c r="I121" s="102" t="n">
         <v>900</v>
       </c>
-      <c r="J121" s="100" t="s">
+      <c r="J121" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="K121" s="100" t="s">
+      <c r="K121" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="L121" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M121" s="10" t="s">
+      <c r="L121" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M121" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="55" t="s">
+      <c r="A122" s="57" t="s">
         <v>545</v>
       </c>
-      <c r="B122" s="100" t="s">
+      <c r="B122" s="102" t="s">
         <v>546</v>
       </c>
-      <c r="C122" s="100" t="s">
+      <c r="C122" s="102" t="s">
         <v>547</v>
       </c>
-      <c r="D122" s="100" t="s">
+      <c r="D122" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="E122" s="100"/>
-      <c r="F122" s="100"/>
-      <c r="G122" s="100" t="s">
+      <c r="E122" s="102"/>
+      <c r="F122" s="102"/>
+      <c r="G122" s="102" t="s">
         <v>548</v>
       </c>
-      <c r="H122" s="100" t="n">
+      <c r="H122" s="102" t="n">
         <v>42422</v>
       </c>
-      <c r="I122" s="100" t="n">
+      <c r="I122" s="102" t="n">
         <v>100</v>
       </c>
-      <c r="J122" s="100" t="s">
+      <c r="J122" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="K122" s="100" t="s">
+      <c r="K122" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="L122" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M122" s="10" t="s">
+      <c r="L122" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M122" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="55" t="s">
+      <c r="A123" s="57" t="s">
         <v>549</v>
       </c>
-      <c r="B123" s="100" t="s">
+      <c r="B123" s="102" t="s">
         <v>550</v>
       </c>
-      <c r="C123" s="100" t="s">
+      <c r="C123" s="102" t="s">
         <v>551</v>
       </c>
-      <c r="D123" s="100" t="s">
+      <c r="D123" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="E123" s="100" t="n">
+      <c r="E123" s="102" t="n">
         <v>790270048</v>
       </c>
-      <c r="F123" s="100"/>
-      <c r="G123" s="100" t="s">
+      <c r="F123" s="102"/>
+      <c r="G123" s="102" t="s">
         <v>552</v>
       </c>
-      <c r="H123" s="100" t="n">
+      <c r="H123" s="102" t="n">
         <v>1383</v>
       </c>
-      <c r="I123" s="100" t="n">
+      <c r="I123" s="102" t="n">
         <v>40200</v>
       </c>
-      <c r="J123" s="100" t="s">
+      <c r="J123" s="102" t="s">
         <v>553</v>
       </c>
-      <c r="K123" s="100" t="s">
+      <c r="K123" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="L123" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M123" s="10" t="s">
+      <c r="L123" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M123" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="55" t="s">
+      <c r="A124" s="57" t="s">
         <v>554</v>
       </c>
-      <c r="B124" s="100" t="s">
+      <c r="B124" s="102" t="s">
         <v>555</v>
       </c>
-      <c r="C124" s="100" t="s">
+      <c r="C124" s="102" t="s">
         <v>556</v>
       </c>
-      <c r="D124" s="100" t="s">
+      <c r="D124" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="E124" s="100" t="n">
+      <c r="E124" s="102" t="n">
         <v>797670031</v>
       </c>
-      <c r="F124" s="100" t="n">
+      <c r="F124" s="102" t="n">
         <v>722909040</v>
       </c>
-      <c r="G124" s="100" t="s">
+      <c r="G124" s="102" t="s">
         <v>557</v>
       </c>
-      <c r="H124" s="100" t="n">
+      <c r="H124" s="102" t="n">
         <v>438642</v>
       </c>
-      <c r="I124" s="100" t="n">
+      <c r="I124" s="102" t="n">
         <v>100</v>
       </c>
-      <c r="J124" s="100" t="s">
+      <c r="J124" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="K124" s="100" t="s">
+      <c r="K124" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="L124" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M124" s="10" t="s">
+      <c r="L124" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M124" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="55" t="s">
+      <c r="A125" s="57" t="s">
         <v>558</v>
       </c>
-      <c r="B125" s="100" t="s">
+      <c r="B125" s="102" t="s">
         <v>559</v>
       </c>
-      <c r="C125" s="100" t="s">
+      <c r="C125" s="102" t="s">
         <v>560</v>
       </c>
-      <c r="D125" s="100" t="s">
+      <c r="D125" s="102" t="s">
         <v>561</v>
       </c>
-      <c r="E125" s="100" t="n">
+      <c r="E125" s="102" t="n">
         <v>110050227</v>
       </c>
-      <c r="F125" s="100" t="n">
+      <c r="F125" s="102" t="n">
         <v>721132462</v>
       </c>
-      <c r="G125" s="100" t="s">
+      <c r="G125" s="102" t="s">
         <v>562</v>
       </c>
-      <c r="H125" s="100" t="n">
+      <c r="H125" s="102" t="n">
         <v>50400</v>
       </c>
-      <c r="I125" s="100" t="n">
+      <c r="I125" s="102" t="n">
         <v>31</v>
       </c>
-      <c r="J125" s="100" t="s">
+      <c r="J125" s="102" t="s">
         <v>563</v>
       </c>
-      <c r="K125" s="100" t="s">
+      <c r="K125" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="L125" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M125" s="10" t="s">
+      <c r="L125" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M125" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="55" t="s">
+      <c r="A126" s="57" t="s">
         <v>564</v>
       </c>
-      <c r="B126" s="100" t="s">
+      <c r="B126" s="102" t="s">
         <v>565</v>
       </c>
-      <c r="C126" s="100" t="s">
+      <c r="C126" s="102" t="s">
         <v>566</v>
       </c>
-      <c r="D126" s="100" t="s">
+      <c r="D126" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="E126" s="100" t="n">
+      <c r="E126" s="102" t="n">
         <v>721332427</v>
       </c>
-      <c r="F126" s="100" t="n">
+      <c r="F126" s="102" t="n">
         <v>726445114</v>
       </c>
-      <c r="G126" s="100"/>
-      <c r="H126" s="100" t="s">
+      <c r="G126" s="102"/>
+      <c r="H126" s="102" t="s">
         <v>567</v>
       </c>
-      <c r="I126" s="100"/>
-      <c r="J126" s="100" t="s">
+      <c r="I126" s="102"/>
+      <c r="J126" s="102" t="s">
         <v>563</v>
       </c>
-      <c r="K126" s="100" t="s">
+      <c r="K126" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="L126" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M126" s="10" t="s">
+      <c r="L126" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M126" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="55" t="s">
+      <c r="A127" s="57" t="s">
         <v>568</v>
       </c>
-      <c r="B127" s="100" t="s">
+      <c r="B127" s="102" t="s">
         <v>569</v>
       </c>
-      <c r="C127" s="100" t="s">
+      <c r="C127" s="102" t="s">
         <v>570</v>
       </c>
-      <c r="D127" s="100" t="s">
+      <c r="D127" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="E127" s="100" t="n">
+      <c r="E127" s="102" t="n">
         <v>713782177</v>
       </c>
-      <c r="F127" s="100" t="n">
+      <c r="F127" s="102" t="n">
         <v>723843464</v>
       </c>
-      <c r="G127" s="100"/>
-      <c r="H127" s="100"/>
-      <c r="I127" s="100"/>
-      <c r="J127" s="100" t="s">
+      <c r="G127" s="102"/>
+      <c r="H127" s="102"/>
+      <c r="I127" s="102"/>
+      <c r="J127" s="102" t="s">
         <v>571</v>
       </c>
-      <c r="K127" s="100" t="s">
+      <c r="K127" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="L127" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M127" s="10" t="s">
+      <c r="L127" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M127" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="55" t="s">
+      <c r="A128" s="57" t="s">
         <v>572</v>
       </c>
-      <c r="B128" s="100" t="s">
+      <c r="B128" s="102" t="s">
         <v>573</v>
       </c>
-      <c r="C128" s="100" t="s">
+      <c r="C128" s="102" t="s">
         <v>574</v>
       </c>
-      <c r="D128" s="100" t="s">
+      <c r="D128" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="E128" s="100" t="n">
+      <c r="E128" s="102" t="n">
         <v>795585182</v>
       </c>
-      <c r="F128" s="100" t="n">
+      <c r="F128" s="102" t="n">
         <v>722587744</v>
       </c>
-      <c r="G128" s="100" t="s">
+      <c r="G128" s="102" t="s">
         <v>575</v>
       </c>
-      <c r="H128" s="100"/>
-      <c r="I128" s="100"/>
-      <c r="J128" s="100"/>
-      <c r="K128" s="100" t="s">
+      <c r="H128" s="102"/>
+      <c r="I128" s="102"/>
+      <c r="J128" s="102"/>
+      <c r="K128" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="L128" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M128" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="129" s="100" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="55" t="s">
+      <c r="L128" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M128" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" s="102" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="57" t="s">
         <v>576</v>
       </c>
-      <c r="B129" s="100" t="s">
+      <c r="B129" s="102" t="s">
         <v>577</v>
       </c>
-      <c r="C129" s="100" t="s">
+      <c r="C129" s="102" t="s">
         <v>578</v>
       </c>
-      <c r="D129" s="100" t="s">
+      <c r="D129" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="E129" s="100" t="n">
+      <c r="E129" s="102" t="n">
         <v>797360748</v>
       </c>
-      <c r="F129" s="100" t="n">
+      <c r="F129" s="102" t="n">
         <v>723863379</v>
       </c>
-      <c r="G129" s="100" t="s">
+      <c r="G129" s="102" t="s">
         <v>579</v>
       </c>
-      <c r="J129" s="100" t="s">
+      <c r="J129" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="K129" s="100" t="s">
+      <c r="K129" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="L129" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="M129" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="130" s="100" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="55" t="s">
+      <c r="L129" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="M129" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" s="102" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="57" t="s">
         <v>580</v>
       </c>
-      <c r="B130" s="100" t="s">
+      <c r="B130" s="102" t="s">
         <v>581</v>
       </c>
-      <c r="C130" s="100" t="s">
+      <c r="C130" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="D130" s="100" t="s">
+      <c r="D130" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="E130" s="100" t="n">
+      <c r="E130" s="102" t="n">
         <v>706059927</v>
       </c>
-      <c r="F130" s="100" t="n">
+      <c r="F130" s="102" t="n">
         <v>114773030</v>
       </c>
-      <c r="G130" s="100" t="s">
+      <c r="G130" s="102" t="s">
         <v>582</v>
       </c>
-      <c r="H130" s="100" t="n">
+      <c r="H130" s="102" t="n">
         <v>815</v>
       </c>
-      <c r="I130" s="100" t="n">
+      <c r="I130" s="102" t="n">
         <v>232</v>
       </c>
-      <c r="J130" s="100" t="s">
+      <c r="J130" s="102" t="s">
         <v>583</v>
       </c>
-      <c r="K130" s="100" t="s">
+      <c r="K130" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="L130" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="M130" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="131" s="100" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="55" t="s">
+      <c r="L130" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="M130" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" s="102" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="57" t="s">
         <v>584</v>
       </c>
-      <c r="B131" s="100" t="s">
+      <c r="B131" s="102" t="s">
         <v>585</v>
       </c>
-      <c r="C131" s="100" t="s">
+      <c r="C131" s="102" t="s">
         <v>586</v>
       </c>
-      <c r="D131" s="100" t="s">
+      <c r="D131" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="E131" s="100" t="n">
+      <c r="E131" s="102" t="n">
         <v>748317114</v>
       </c>
-      <c r="F131" s="100" t="n">
+      <c r="F131" s="102" t="n">
         <v>748317114</v>
       </c>
-      <c r="G131" s="100" t="s">
+      <c r="G131" s="102" t="s">
         <v>587</v>
       </c>
-      <c r="H131" s="100" t="n">
+      <c r="H131" s="102" t="n">
         <v>14</v>
       </c>
-      <c r="J131" s="100" t="s">
+      <c r="J131" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="K131" s="100" t="s">
+      <c r="K131" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="L131" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="M131" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="132" s="100" customFormat="true" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="55" t="s">
+      <c r="L131" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="M131" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" s="102" customFormat="true" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="57" t="s">
         <v>588</v>
       </c>
-      <c r="B132" s="100" t="s">
+      <c r="B132" s="102" t="s">
         <v>589</v>
       </c>
-      <c r="C132" s="100" t="s">
+      <c r="C132" s="102" t="s">
         <v>590</v>
       </c>
-      <c r="D132" s="100" t="s">
+      <c r="D132" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="E132" s="100" t="n">
+      <c r="E132" s="102" t="n">
         <v>769505047</v>
       </c>
-      <c r="F132" s="100" t="n">
+      <c r="F132" s="102" t="n">
         <v>721610990</v>
       </c>
-      <c r="G132" s="100" t="s">
+      <c r="G132" s="102" t="s">
         <v>591</v>
       </c>
-      <c r="I132" s="100" t="n">
+      <c r="I132" s="102" t="n">
         <v>217</v>
       </c>
-      <c r="J132" s="100" t="s">
+      <c r="J132" s="102" t="s">
         <v>592</v>
       </c>
-      <c r="K132" s="100" t="s">
+      <c r="K132" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="L132" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="M132" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="133" s="100" customFormat="true" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="55" t="s">
+      <c r="L132" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="M132" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" s="102" customFormat="true" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="57" t="s">
         <v>593</v>
       </c>
-      <c r="B133" s="100" t="s">
+      <c r="B133" s="102" t="s">
         <v>594</v>
       </c>
-      <c r="C133" s="100" t="s">
+      <c r="C133" s="102" t="s">
         <v>595</v>
       </c>
-      <c r="D133" s="100" t="s">
+      <c r="D133" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="E133" s="100" t="n">
+      <c r="E133" s="102" t="n">
         <v>791114570</v>
       </c>
-      <c r="F133" s="100" t="n">
+      <c r="F133" s="102" t="n">
         <v>71741228</v>
       </c>
-      <c r="G133" s="100" t="s">
+      <c r="G133" s="102" t="s">
         <v>596</v>
       </c>
-      <c r="H133" s="100" t="n">
+      <c r="H133" s="102" t="n">
         <v>770</v>
       </c>
-      <c r="I133" s="100" t="n">
+      <c r="I133" s="102" t="n">
         <v>30209</v>
       </c>
-      <c r="J133" s="100" t="s">
+      <c r="J133" s="102" t="s">
         <v>597</v>
       </c>
-      <c r="K133" s="100" t="s">
+      <c r="K133" s="102" t="s">
         <v>498</v>
       </c>
-      <c r="L133" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="M133" s="10" t="s">
+      <c r="L133" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="M133" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="102"/>
-      <c r="C134" s="102"/>
-      <c r="D134" s="102"/>
-      <c r="E134" s="102"/>
-      <c r="F134" s="102"/>
-      <c r="G134" s="102"/>
-      <c r="H134" s="102"/>
-      <c r="I134" s="102"/>
-      <c r="J134" s="102"/>
-      <c r="K134" s="102"/>
-      <c r="L134" s="67"/>
-      <c r="M134" s="10" t="s">
+      <c r="B134" s="104"/>
+      <c r="C134" s="104"/>
+      <c r="D134" s="104"/>
+      <c r="E134" s="104"/>
+      <c r="F134" s="104"/>
+      <c r="G134" s="104"/>
+      <c r="H134" s="104"/>
+      <c r="I134" s="104"/>
+      <c r="J134" s="104"/>
+      <c r="K134" s="104"/>
+      <c r="L134" s="69"/>
+      <c r="M134" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="55" t="s">
+      <c r="A135" s="57" t="s">
         <v>598</v>
       </c>
-      <c r="B135" s="103" t="s">
+      <c r="B135" s="105" t="s">
         <v>599</v>
       </c>
-      <c r="C135" s="104" t="s">
+      <c r="C135" s="106" t="s">
         <v>600</v>
       </c>
-      <c r="D135" s="73" t="s">
+      <c r="D135" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="E135" s="105" t="n">
+      <c r="E135" s="107" t="n">
         <v>713859342</v>
       </c>
-      <c r="F135" s="105" t="n">
+      <c r="F135" s="107" t="n">
         <v>725762184</v>
       </c>
-      <c r="G135" s="106" t="s">
+      <c r="G135" s="108" t="s">
         <v>601</v>
       </c>
-      <c r="H135" s="105" t="n">
+      <c r="H135" s="107" t="n">
         <v>421</v>
       </c>
-      <c r="I135" s="105" t="n">
+      <c r="I135" s="107" t="n">
         <v>100</v>
       </c>
-      <c r="J135" s="73" t="s">
+      <c r="J135" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="K135" s="104" t="s">
+      <c r="K135" s="106" t="s">
         <v>602</v>
       </c>
-      <c r="L135" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="M135" s="10" t="s">
+      <c r="L135" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="M135" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="55" t="s">
+      <c r="A136" s="57" t="s">
         <v>603</v>
       </c>
-      <c r="B136" s="103" t="s">
+      <c r="B136" s="105" t="s">
         <v>604</v>
       </c>
-      <c r="C136" s="61" t="s">
+      <c r="C136" s="63" t="s">
         <v>605</v>
       </c>
-      <c r="D136" s="73" t="s">
+      <c r="D136" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="E136" s="105" t="n">
+      <c r="E136" s="107" t="n">
         <v>712927443</v>
       </c>
-      <c r="F136" s="105" t="n">
+      <c r="F136" s="107" t="n">
         <v>724424063</v>
       </c>
-      <c r="G136" s="106" t="s">
+      <c r="G136" s="108" t="s">
         <v>606</v>
       </c>
-      <c r="H136" s="105" t="n">
+      <c r="H136" s="107" t="n">
         <v>20131</v>
       </c>
-      <c r="I136" s="105" t="n">
+      <c r="I136" s="107" t="n">
         <v>20131</v>
       </c>
-      <c r="J136" s="73" t="s">
+      <c r="J136" s="75" t="s">
         <v>607</v>
       </c>
-      <c r="K136" s="104" t="s">
+      <c r="K136" s="106" t="s">
         <v>602</v>
       </c>
-      <c r="L136" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="M136" s="10" t="s">
+      <c r="L136" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="M136" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="55" t="s">
+      <c r="A137" s="57" t="s">
         <v>608</v>
       </c>
-      <c r="B137" s="85" t="s">
+      <c r="B137" s="87" t="s">
         <v>609</v>
       </c>
-      <c r="C137" s="63" t="s">
+      <c r="C137" s="65" t="s">
         <v>610</v>
       </c>
-      <c r="D137" s="73" t="s">
+      <c r="D137" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E137" s="105" t="n">
+      <c r="E137" s="107" t="n">
         <v>112995679</v>
       </c>
-      <c r="F137" s="105" t="n">
+      <c r="F137" s="107" t="n">
         <v>732318352</v>
       </c>
-      <c r="G137" s="107" t="s">
+      <c r="G137" s="109" t="s">
         <v>611</v>
       </c>
-      <c r="H137" s="105" t="n">
+      <c r="H137" s="107" t="n">
         <v>100</v>
       </c>
-      <c r="I137" s="105" t="n">
+      <c r="I137" s="107" t="n">
         <v>100</v>
       </c>
-      <c r="J137" s="73" t="s">
+      <c r="J137" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="K137" s="104" t="s">
+      <c r="K137" s="106" t="s">
         <v>602</v>
       </c>
-      <c r="L137" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="M137" s="10" t="s">
+      <c r="L137" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="M137" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="55" t="s">
+      <c r="A138" s="57" t="s">
         <v>612</v>
       </c>
-      <c r="B138" s="103" t="s">
+      <c r="B138" s="105" t="s">
         <v>613</v>
       </c>
-      <c r="C138" s="61" t="s">
+      <c r="C138" s="63" t="s">
         <v>614</v>
       </c>
-      <c r="D138" s="73" t="s">
+      <c r="D138" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="E138" s="105" t="n">
+      <c r="E138" s="107" t="n">
         <v>112452227</v>
       </c>
-      <c r="F138" s="105" t="n">
+      <c r="F138" s="107" t="n">
         <v>716956737</v>
       </c>
-      <c r="G138" s="106" t="s">
+      <c r="G138" s="108" t="s">
         <v>615</v>
       </c>
-      <c r="H138" s="73" t="s">
+      <c r="H138" s="75" t="s">
         <v>616</v>
       </c>
-      <c r="I138" s="105" t="n">
+      <c r="I138" s="107" t="n">
         <v>100</v>
       </c>
-      <c r="J138" s="73" t="s">
+      <c r="J138" s="75" t="s">
         <v>617</v>
       </c>
-      <c r="K138" s="104" t="s">
+      <c r="K138" s="106" t="s">
         <v>602</v>
       </c>
-      <c r="L138" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="M138" s="10" t="s">
+      <c r="L138" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="M138" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="55" t="s">
+      <c r="A139" s="57" t="s">
         <v>618</v>
       </c>
-      <c r="B139" s="103" t="s">
+      <c r="B139" s="105" t="s">
         <v>619</v>
       </c>
-      <c r="C139" s="61" t="s">
+      <c r="C139" s="63" t="s">
         <v>620</v>
       </c>
-      <c r="D139" s="73" t="s">
+      <c r="D139" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="E139" s="105" t="n">
+      <c r="E139" s="107" t="n">
         <v>114545786</v>
       </c>
-      <c r="F139" s="105" t="n">
+      <c r="F139" s="107" t="n">
         <v>728751789</v>
       </c>
-      <c r="G139" s="106" t="s">
+      <c r="G139" s="108" t="s">
         <v>621</v>
       </c>
-      <c r="H139" s="105" t="n">
+      <c r="H139" s="107" t="n">
         <v>218</v>
       </c>
-      <c r="I139" s="108"/>
-      <c r="J139" s="73" t="s">
+      <c r="I139" s="110"/>
+      <c r="J139" s="75" t="s">
         <v>622</v>
       </c>
-      <c r="K139" s="104" t="s">
+      <c r="K139" s="106" t="s">
         <v>602</v>
       </c>
-      <c r="L139" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="M139" s="10" t="s">
+      <c r="L139" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="M139" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="55" t="s">
+      <c r="A140" s="57" t="s">
         <v>623</v>
       </c>
-      <c r="B140" s="109" t="s">
+      <c r="B140" s="111" t="s">
         <v>624</v>
       </c>
-      <c r="C140" s="61" t="s">
+      <c r="C140" s="63" t="s">
         <v>625</v>
       </c>
-      <c r="D140" s="73" t="s">
+      <c r="D140" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E140" s="105" t="n">
+      <c r="E140" s="107" t="n">
         <v>742429711</v>
       </c>
-      <c r="F140" s="105" t="n">
+      <c r="F140" s="107" t="n">
         <v>723768863</v>
       </c>
-      <c r="G140" s="106" t="s">
+      <c r="G140" s="108" t="s">
         <v>626</v>
       </c>
-      <c r="H140" s="105" t="n">
+      <c r="H140" s="107" t="n">
         <v>42422</v>
       </c>
-      <c r="I140" s="105" t="n">
+      <c r="I140" s="107" t="n">
         <v>100</v>
       </c>
-      <c r="J140" s="73" t="s">
+      <c r="J140" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="K140" s="104" t="s">
+      <c r="K140" s="106" t="s">
         <v>602</v>
       </c>
-      <c r="L140" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="M140" s="10" t="s">
+      <c r="L140" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="M140" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="55" t="s">
+      <c r="A141" s="57" t="s">
         <v>627</v>
       </c>
-      <c r="B141" s="103" t="s">
+      <c r="B141" s="105" t="s">
         <v>628</v>
       </c>
-      <c r="C141" s="61" t="s">
+      <c r="C141" s="63" t="s">
         <v>629</v>
       </c>
-      <c r="D141" s="73" t="s">
+      <c r="D141" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="E141" s="105" t="n">
+      <c r="E141" s="107" t="n">
         <v>708166543</v>
       </c>
-      <c r="F141" s="105" t="n">
+      <c r="F141" s="107" t="n">
         <v>724775600</v>
       </c>
-      <c r="G141" s="106" t="s">
+      <c r="G141" s="108" t="s">
         <v>630</v>
       </c>
-      <c r="H141" s="65"/>
-      <c r="I141" s="65"/>
-      <c r="J141" s="73" t="s">
+      <c r="H141" s="67"/>
+      <c r="I141" s="67"/>
+      <c r="J141" s="75" t="s">
         <v>419</v>
       </c>
-      <c r="K141" s="104" t="s">
+      <c r="K141" s="106" t="s">
         <v>602</v>
       </c>
-      <c r="L141" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="M141" s="10" t="s">
+      <c r="L141" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="M141" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="55" t="s">
+      <c r="A142" s="57" t="s">
         <v>631</v>
       </c>
-      <c r="B142" s="61" t="s">
+      <c r="B142" s="63" t="s">
         <v>632</v>
       </c>
-      <c r="C142" s="61" t="s">
+      <c r="C142" s="63" t="s">
         <v>633</v>
       </c>
-      <c r="D142" s="67" t="s">
+      <c r="D142" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="E142" s="64" t="n">
+      <c r="E142" s="66" t="n">
         <v>708928124</v>
       </c>
-      <c r="F142" s="64" t="n">
+      <c r="F142" s="66" t="n">
         <v>720452172</v>
       </c>
-      <c r="G142" s="106" t="s">
+      <c r="G142" s="108" t="s">
         <v>634</v>
       </c>
-      <c r="H142" s="64" t="n">
+      <c r="H142" s="66" t="n">
         <v>1996</v>
       </c>
-      <c r="I142" s="85" t="n">
+      <c r="I142" s="87" t="n">
         <v>90100</v>
       </c>
-      <c r="J142" s="67" t="s">
+      <c r="J142" s="69" t="s">
         <v>540</v>
       </c>
-      <c r="K142" s="104" t="s">
+      <c r="K142" s="106" t="s">
         <v>602</v>
       </c>
-      <c r="L142" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="M142" s="10" t="s">
+      <c r="L142" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="M142" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="55" t="s">
+      <c r="A143" s="57" t="s">
         <v>635</v>
       </c>
-      <c r="B143" s="103" t="s">
+      <c r="B143" s="105" t="s">
         <v>636</v>
       </c>
-      <c r="C143" s="61" t="s">
+      <c r="C143" s="63" t="s">
         <v>637</v>
       </c>
-      <c r="D143" s="73" t="s">
+      <c r="D143" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E143" s="105" t="n">
+      <c r="E143" s="107" t="n">
         <v>757857561</v>
       </c>
-      <c r="F143" s="105" t="n">
+      <c r="F143" s="107" t="n">
         <v>726745174</v>
       </c>
-      <c r="G143" s="106" t="s">
+      <c r="G143" s="108" t="s">
         <v>638</v>
       </c>
-      <c r="H143" s="105" t="n">
+      <c r="H143" s="107" t="n">
         <v>42422</v>
       </c>
-      <c r="I143" s="65"/>
-      <c r="J143" s="73" t="s">
+      <c r="I143" s="67"/>
+      <c r="J143" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="K143" s="104" t="s">
+      <c r="K143" s="106" t="s">
         <v>602</v>
       </c>
-      <c r="L143" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="M143" s="10" t="s">
+      <c r="L143" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="M143" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8648,7 +8691,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.78"/>
@@ -9365,7 +9408,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="110" t="s">
+      <c r="A23" s="112" t="s">
         <v>645</v>
       </c>
       <c r="B23" s="0" t="s">
